--- a/public/consultation_template.xlsx
+++ b/public/consultation_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\satsu\anshin-house-db\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFE85E1-0189-4707-9CBB-3D11440F90FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5AA6CE-B2BF-4A88-8879-601FC8F73178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="209">
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
@@ -480,22 +480,6 @@
     <t>（浴室）</t>
     <rPh sb="1" eb="3">
       <t>ヨクシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユニットバス（可・不可）、浴槽（深さ：　　　　　　㎝）</t>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨクソウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1856,7 +1840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1992,12 +1976,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2007,6 +1985,327 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2019,21 +2318,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2050,315 +2337,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2686,8 +2664,8 @@
   </sheetPr>
   <dimension ref="A1:AK51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AI2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38:T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2750,241 +2728,241 @@
       <c r="AK1" s="15"/>
     </row>
     <row r="2" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="142" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142" t="s">
+      <c r="A2" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="142" t="s">
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="142" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="106" t="s">
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="106"/>
+      <c r="AK2" s="76"/>
     </row>
     <row r="3" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="143" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143"/>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="144"/>
+        <v>62</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="101"/>
+      <c r="X3" s="101"/>
+      <c r="Y3" s="101"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="101"/>
+      <c r="AE3" s="101"/>
+      <c r="AF3" s="101"/>
+      <c r="AG3" s="101"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="101"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="102"/>
     </row>
     <row r="4" spans="1:37" ht="41.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="155" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50" t="s">
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50" t="s">
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155" t="s">
+        <v>137</v>
+      </c>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="155" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="155"/>
+      <c r="AC4" s="155"/>
+      <c r="AD4" s="155"/>
+      <c r="AE4" s="155"/>
+      <c r="AF4" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="W4" s="50"/>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="50"/>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50" t="s">
+      <c r="AG4" s="155"/>
+      <c r="AH4" s="155"/>
+      <c r="AI4" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ4" s="50"/>
-      <c r="AK4" s="61"/>
+      <c r="AJ4" s="155"/>
+      <c r="AK4" s="162"/>
     </row>
     <row r="5" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54" t="s">
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54" t="s">
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54" t="s">
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54" t="s">
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54" t="s">
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54" t="s">
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54" t="s">
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54" t="s">
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="64"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="164"/>
+      <c r="AK5" s="165"/>
     </row>
     <row r="6" spans="1:37" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="33"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55" t="s">
+      <c r="I6" s="159"/>
+      <c r="J6" s="159"/>
+      <c r="K6" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="159"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -3014,112 +2992,112 @@
       <c r="A7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
+      <c r="B7" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
       <c r="P7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="87" t="s">
+      <c r="R7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="88"/>
-      <c r="T7" s="88"/>
-      <c r="U7" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="141" t="s">
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="60" t="s">
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="161" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB7" s="160"/>
+      <c r="AC7" s="160"/>
+      <c r="AD7" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="59" t="s">
+      <c r="AE7" s="160"/>
+      <c r="AF7" s="160"/>
+      <c r="AG7" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="AE7" s="59"/>
-      <c r="AF7" s="59"/>
-      <c r="AG7" s="59" t="s">
+      <c r="AH7" s="160"/>
+      <c r="AI7" s="160"/>
+      <c r="AJ7" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="AK7" s="62"/>
+      <c r="AK7" s="163"/>
     </row>
     <row r="8" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="155" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="51" t="s">
+      <c r="B8" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="105"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="100"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="102"/>
-      <c r="AA8" s="53" t="s">
+      <c r="Q8" s="156"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="99"/>
+      <c r="AA8" s="158" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB8" s="157"/>
+      <c r="AC8" s="157"/>
+      <c r="AD8" s="157"/>
+      <c r="AE8" s="157" t="s">
         <v>121</v>
       </c>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52" t="s">
+      <c r="AF8" s="157"/>
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI8" s="157"/>
+      <c r="AJ8" s="157"/>
+      <c r="AK8" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="25" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -3129,321 +3107,321 @@
       <c r="B9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="57"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="58"/>
+      <c r="C9" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="125" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="125"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="125"/>
+      <c r="AA9" s="125"/>
+      <c r="AB9" s="125"/>
+      <c r="AC9" s="125"/>
+      <c r="AD9" s="125"/>
+      <c r="AE9" s="125"/>
+      <c r="AF9" s="125"/>
+      <c r="AG9" s="125"/>
+      <c r="AH9" s="125"/>
+      <c r="AI9" s="125"/>
+      <c r="AJ9" s="125"/>
+      <c r="AK9" s="126"/>
     </row>
     <row r="10" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="158"/>
-      <c r="AI10" s="158"/>
-      <c r="AJ10" s="158"/>
-      <c r="AK10" s="159"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="83"/>
     </row>
     <row r="11" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="151" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="153" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="104"/>
+      <c r="B11" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="84"/>
       <c r="G11" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="H11" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" s="104"/>
+      <c r="H11" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="84"/>
       <c r="J11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="153" t="s">
-        <v>141</v>
-      </c>
-      <c r="L11" s="104"/>
+      <c r="K11" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="L11" s="84"/>
       <c r="M11" s="40" t="s">
         <v>15</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q11" s="153" t="s">
-        <v>142</v>
-      </c>
-      <c r="R11" s="104"/>
-      <c r="S11" s="48" t="s">
+      <c r="P11" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q11" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="R11" s="84"/>
+      <c r="S11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="T11" s="48"/>
+      <c r="T11" s="46"/>
       <c r="U11" s="12"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="158"/>
-      <c r="X11" s="158"/>
-      <c r="Y11" s="158"/>
-      <c r="Z11" s="158"/>
-      <c r="AA11" s="158"/>
-      <c r="AB11" s="158"/>
-      <c r="AC11" s="158"/>
-      <c r="AD11" s="158"/>
-      <c r="AE11" s="158"/>
-      <c r="AF11" s="158"/>
-      <c r="AG11" s="158"/>
-      <c r="AH11" s="158"/>
-      <c r="AI11" s="158"/>
-      <c r="AJ11" s="158"/>
-      <c r="AK11" s="159"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="82"/>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="82"/>
+      <c r="AD11" s="82"/>
+      <c r="AE11" s="82"/>
+      <c r="AF11" s="82"/>
+      <c r="AG11" s="82"/>
+      <c r="AH11" s="82"/>
+      <c r="AI11" s="82"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="83"/>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="131"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="131"/>
-      <c r="AA12" s="131"/>
-      <c r="AB12" s="131"/>
-      <c r="AC12" s="131"/>
-      <c r="AD12" s="131"/>
-      <c r="AE12" s="131"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="131"/>
-      <c r="AH12" s="131"/>
-      <c r="AI12" s="131"/>
-      <c r="AJ12" s="131"/>
-      <c r="AK12" s="132"/>
+      <c r="B12" s="109" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="T12" s="110"/>
+      <c r="U12" s="110"/>
+      <c r="V12" s="110"/>
+      <c r="W12" s="110"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="110"/>
+      <c r="AB12" s="110"/>
+      <c r="AC12" s="110"/>
+      <c r="AD12" s="110"/>
+      <c r="AE12" s="110"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="110"/>
+      <c r="AH12" s="110"/>
+      <c r="AI12" s="110"/>
+      <c r="AJ12" s="110"/>
+      <c r="AK12" s="111"/>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="100"/>
-      <c r="B13" s="105" t="s">
+      <c r="A13" s="95"/>
+      <c r="B13" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106" t="s">
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="78"/>
+      <c r="W13" s="78"/>
+      <c r="X13" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="157" t="s">
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="157"/>
-      <c r="S13" s="157"/>
-      <c r="T13" s="157"/>
-      <c r="U13" s="157"/>
-      <c r="V13" s="157"/>
-      <c r="W13" s="157"/>
-      <c r="X13" s="106" t="s">
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="76"/>
+      <c r="AI13" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC13" s="106"/>
-      <c r="AD13" s="106"/>
-      <c r="AE13" s="106"/>
-      <c r="AF13" s="106"/>
-      <c r="AG13" s="106"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ13" s="133"/>
-      <c r="AK13" s="134"/>
+      <c r="AJ13" s="112"/>
+      <c r="AK13" s="113"/>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="103" t="s">
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="103" t="s">
-        <v>134</v>
-      </c>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="103" t="s">
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="104"/>
-      <c r="AG14" s="104"/>
-      <c r="AH14" s="104"/>
-      <c r="AI14" s="104"/>
-      <c r="AJ14" s="104"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
       <c r="AK14" s="5"/>
     </row>
     <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="115"/>
-      <c r="B15" s="84" t="s">
+      <c r="A15" s="104"/>
+      <c r="B15" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="84" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="86"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="72"/>
       <c r="R15" s="18"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
@@ -3466,813 +3444,813 @@
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:37" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="115"/>
-      <c r="B16" s="81" t="s">
+      <c r="A16" s="104"/>
+      <c r="B16" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="126" t="s">
-        <v>164</v>
-      </c>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="127"/>
-      <c r="N16" s="127"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="127"/>
-      <c r="U16" s="127"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="127"/>
-      <c r="AA16" s="127"/>
-      <c r="AB16" s="127"/>
-      <c r="AC16" s="127"/>
-      <c r="AD16" s="127"/>
-      <c r="AE16" s="127"/>
-      <c r="AF16" s="127"/>
-      <c r="AG16" s="127"/>
-      <c r="AH16" s="127"/>
-      <c r="AI16" s="127"/>
-      <c r="AJ16" s="127"/>
-      <c r="AK16" s="128"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="105" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="106"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="106"/>
+      <c r="Q16" s="106"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="106"/>
+      <c r="Y16" s="106"/>
+      <c r="Z16" s="106"/>
+      <c r="AA16" s="106"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="106"/>
+      <c r="AD16" s="106"/>
+      <c r="AE16" s="106"/>
+      <c r="AF16" s="106"/>
+      <c r="AG16" s="106"/>
+      <c r="AH16" s="106"/>
+      <c r="AI16" s="106"/>
+      <c r="AJ16" s="106"/>
+      <c r="AK16" s="107"/>
     </row>
     <row r="17" spans="1:37" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100" t="s">
+      <c r="A17" s="95"/>
+      <c r="B17" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="129" t="s">
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA17" s="80"/>
+      <c r="AB17" s="80"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="83"/>
-      <c r="AD17" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE17" s="85"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="85"/>
-      <c r="AK17" s="86"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="71"/>
+      <c r="AI17" s="71"/>
+      <c r="AJ17" s="71"/>
+      <c r="AK17" s="72"/>
     </row>
     <row r="18" spans="1:37" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="145" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="146"/>
-      <c r="T18" s="146"/>
-      <c r="U18" s="146"/>
-      <c r="V18" s="146"/>
-      <c r="W18" s="146"/>
-      <c r="X18" s="146"/>
-      <c r="Y18" s="146"/>
-      <c r="Z18" s="146"/>
-      <c r="AA18" s="146"/>
-      <c r="AB18" s="146"/>
-      <c r="AC18" s="146"/>
-      <c r="AD18" s="146"/>
-      <c r="AE18" s="146"/>
-      <c r="AF18" s="146"/>
-      <c r="AG18" s="146"/>
-      <c r="AH18" s="146"/>
-      <c r="AI18" s="146"/>
-      <c r="AJ18" s="146"/>
-      <c r="AK18" s="147"/>
+      <c r="B18" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="65"/>
+      <c r="Z18" s="65"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="65"/>
+      <c r="AI18" s="65"/>
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="66"/>
     </row>
     <row r="19" spans="1:37" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="148" t="s">
+      <c r="B19" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="151" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="152"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="152"/>
-      <c r="R19" s="152"/>
-      <c r="S19" s="152"/>
-      <c r="T19" s="152"/>
-      <c r="U19" s="152"/>
-      <c r="V19" s="152"/>
-      <c r="W19" s="152"/>
-      <c r="X19" s="152"/>
-      <c r="Y19" s="154"/>
-      <c r="Z19" s="87" t="s">
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="60"/>
+      <c r="X19" s="60"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE19" s="85"/>
-      <c r="AF19" s="85"/>
-      <c r="AG19" s="85"/>
-      <c r="AH19" s="85"/>
-      <c r="AI19" s="85"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="86"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="71"/>
+      <c r="AK19" s="72"/>
     </row>
     <row r="20" spans="1:37" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="B20" s="148" t="s">
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="149"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="151" t="s">
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="161" t="s">
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="135" t="s">
+      <c r="P20" s="58"/>
+      <c r="Q20" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="148" t="s">
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="R20" s="149"/>
-      <c r="S20" s="149"/>
-      <c r="T20" s="150"/>
-      <c r="U20" s="166" t="s">
-        <v>180</v>
-      </c>
-      <c r="V20" s="160"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="160"/>
-      <c r="AI20" s="160"/>
-      <c r="AJ20" s="160"/>
-      <c r="AK20" s="167"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="53"/>
     </row>
     <row r="21" spans="1:37" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="164"/>
-      <c r="B21" s="148" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="151" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="152"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="148" t="s">
-        <v>185</v>
-      </c>
-      <c r="P21" s="150"/>
-      <c r="Q21" s="166" t="s">
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="R21" s="160"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="160"/>
-      <c r="U21" s="160"/>
-      <c r="V21" s="160"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="160"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="160"/>
-      <c r="AI21" s="160"/>
-      <c r="AJ21" s="160"/>
-      <c r="AK21" s="167"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="R21" s="52"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="53"/>
     </row>
     <row r="22" spans="1:37" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="165"/>
-      <c r="B22" s="148" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="166" t="s">
-        <v>207</v>
-      </c>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="160"/>
-      <c r="Q22" s="160"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="160"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="160"/>
-      <c r="AI22" s="160"/>
-      <c r="AJ22" s="160"/>
-      <c r="AK22" s="167"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
+      <c r="AD22" s="52"/>
+      <c r="AE22" s="52"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="52"/>
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="52"/>
+      <c r="AJ22" s="52"/>
+      <c r="AK22" s="53"/>
     </row>
     <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="119" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="100" t="s">
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="116"/>
+      <c r="M23" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="120"/>
+      <c r="Z23" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="AA23" s="101"/>
-      <c r="AB23" s="101"/>
-      <c r="AC23" s="102"/>
+      <c r="AA23" s="96"/>
+      <c r="AB23" s="96"/>
+      <c r="AC23" s="99"/>
       <c r="AD23" s="29"/>
       <c r="AE23" s="29"/>
-      <c r="AF23" s="106" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG23" s="106"/>
-      <c r="AH23" s="106"/>
-      <c r="AI23" s="106"/>
+      <c r="AF23" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="76"/>
       <c r="AJ23" s="43" t="s">
         <v>28</v>
       </c>
       <c r="AK23" s="30"/>
     </row>
     <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="100"/>
-      <c r="B24" s="81" t="s">
+      <c r="A24" s="95"/>
+      <c r="B24" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="122" t="s">
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="118"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="119"/>
+      <c r="M24" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="124"/>
-      <c r="M24" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="84" t="s">
-        <v>74</v>
-      </c>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="81" t="s">
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="82"/>
-      <c r="AC24" s="83"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="81"/>
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
-      <c r="AF24" s="85" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG24" s="85"/>
-      <c r="AH24" s="85"/>
-      <c r="AI24" s="85"/>
+      <c r="AF24" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="71"/>
+      <c r="AI24" s="71"/>
       <c r="AJ24" s="44" t="s">
         <v>28</v>
       </c>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="136" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="O25" s="137"/>
-      <c r="P25" s="137"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="137"/>
-      <c r="W25" s="137"/>
-      <c r="X25" s="137"/>
-      <c r="Y25" s="137"/>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="137"/>
-      <c r="AD25" s="137"/>
-      <c r="AE25" s="137"/>
-      <c r="AF25" s="137"/>
-      <c r="AG25" s="137"/>
-      <c r="AH25" s="137"/>
-      <c r="AI25" s="137"/>
-      <c r="AJ25" s="137"/>
-      <c r="AK25" s="138"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="89"/>
+      <c r="AF25" s="89"/>
+      <c r="AG25" s="89"/>
+      <c r="AH25" s="89"/>
+      <c r="AI25" s="89"/>
+      <c r="AJ25" s="89"/>
+      <c r="AK25" s="90"/>
     </row>
     <row r="26" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="115"/>
-      <c r="B26" s="73" t="s">
+      <c r="A26" s="104"/>
+      <c r="B26" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="139" t="s">
-        <v>157</v>
-      </c>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="139"/>
+      <c r="J26" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
       <c r="Q26" s="27"/>
       <c r="R26" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S26" s="27"/>
       <c r="T26" s="27"/>
       <c r="U26" s="27"/>
-      <c r="V26" s="139" t="s">
-        <v>159</v>
-      </c>
-      <c r="W26" s="139"/>
-      <c r="X26" s="139"/>
-      <c r="Y26" s="139"/>
-      <c r="Z26" s="139"/>
-      <c r="AA26" s="139"/>
-      <c r="AB26" s="139"/>
+      <c r="V26" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="W26" s="91"/>
+      <c r="X26" s="91"/>
+      <c r="Y26" s="91"/>
+      <c r="Z26" s="91"/>
+      <c r="AA26" s="91"/>
+      <c r="AB26" s="91"/>
       <c r="AC26" s="27"/>
       <c r="AD26" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE26" s="27"/>
       <c r="AF26" s="27"/>
       <c r="AG26" s="27"/>
       <c r="AH26" s="27"/>
       <c r="AI26" s="27"/>
-      <c r="AJ26" s="139" t="s">
-        <v>161</v>
-      </c>
-      <c r="AK26" s="140"/>
+      <c r="AJ26" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK26" s="92"/>
     </row>
     <row r="27" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="115"/>
-      <c r="B27" s="73" t="s">
+      <c r="A27" s="104"/>
+      <c r="B27" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
-      <c r="S27" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="71"/>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="71"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="71"/>
-      <c r="AI27" s="71"/>
-      <c r="AJ27" s="71"/>
-      <c r="AK27" s="72"/>
+      <c r="S27" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="86"/>
+      <c r="AJ27" s="86"/>
+      <c r="AK27" s="87"/>
     </row>
     <row r="28" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="115"/>
-      <c r="B28" s="73" t="s">
+      <c r="A28" s="104"/>
+      <c r="B28" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="71"/>
-      <c r="AD28" s="71"/>
-      <c r="AE28" s="71"/>
-      <c r="AF28" s="71"/>
-      <c r="AG28" s="71"/>
-      <c r="AH28" s="71"/>
-      <c r="AI28" s="71"/>
-      <c r="AJ28" s="71"/>
-      <c r="AK28" s="72"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="86"/>
+      <c r="AE28" s="86"/>
+      <c r="AF28" s="86"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="86"/>
+      <c r="AJ28" s="86"/>
+      <c r="AK28" s="87"/>
     </row>
     <row r="29" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="115"/>
-      <c r="B29" s="73" t="s">
+      <c r="A29" s="104"/>
+      <c r="B29" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
       <c r="U29" s="21"/>
-      <c r="V29" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="71"/>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="71"/>
-      <c r="AI29" s="71"/>
-      <c r="AJ29" s="71"/>
-      <c r="AK29" s="72"/>
+      <c r="V29" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="86"/>
+      <c r="AE29" s="86"/>
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
+      <c r="AI29" s="86"/>
+      <c r="AJ29" s="86"/>
+      <c r="AK29" s="87"/>
     </row>
     <row r="30" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="115"/>
-      <c r="B30" s="73" t="s">
+      <c r="A30" s="104"/>
+      <c r="B30" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
       <c r="U30" s="21"/>
-      <c r="V30" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="71"/>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="71"/>
-      <c r="AI30" s="71"/>
-      <c r="AJ30" s="71"/>
-      <c r="AK30" s="72"/>
+      <c r="V30" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="W30" s="86"/>
+      <c r="X30" s="86"/>
+      <c r="Y30" s="86"/>
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="86"/>
+      <c r="AB30" s="86"/>
+      <c r="AC30" s="86"/>
+      <c r="AD30" s="86"/>
+      <c r="AE30" s="86"/>
+      <c r="AF30" s="86"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="86"/>
+      <c r="AJ30" s="86"/>
+      <c r="AK30" s="87"/>
     </row>
     <row r="31" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="115"/>
-      <c r="B31" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="136" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
       <c r="U31" s="21"/>
-      <c r="V31" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="71"/>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="71"/>
-      <c r="AG31" s="71"/>
-      <c r="AH31" s="71"/>
-      <c r="AI31" s="71"/>
-      <c r="AJ31" s="71"/>
-      <c r="AK31" s="72"/>
+      <c r="V31" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="86"/>
+      <c r="AB31" s="86"/>
+      <c r="AC31" s="86"/>
+      <c r="AD31" s="86"/>
+      <c r="AE31" s="86"/>
+      <c r="AF31" s="86"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="86"/>
+      <c r="AJ31" s="86"/>
+      <c r="AK31" s="87"/>
     </row>
     <row r="32" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="115"/>
-      <c r="B32" s="73" t="s">
+      <c r="A32" s="104"/>
+      <c r="B32" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="W32" s="71"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="71"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="71"/>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="71"/>
-      <c r="AE32" s="71"/>
-      <c r="AF32" s="71"/>
-      <c r="AG32" s="71"/>
-      <c r="AH32" s="71"/>
-      <c r="AI32" s="71"/>
-      <c r="AJ32" s="71"/>
-      <c r="AK32" s="72"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="86"/>
+      <c r="AB32" s="86"/>
+      <c r="AC32" s="86"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="86"/>
+      <c r="AF32" s="86"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="86"/>
+      <c r="AJ32" s="86"/>
+      <c r="AK32" s="87"/>
     </row>
     <row r="33" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="115"/>
-      <c r="B33" s="73" t="s">
+      <c r="A33" s="104"/>
+      <c r="B33" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="75"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="138"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21" t="s">
         <v>35</v>
@@ -4296,42 +4274,42 @@
       <c r="Y33" s="21"/>
       <c r="Z33" s="21"/>
       <c r="AA33" s="21"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="71"/>
-      <c r="AE33" s="71"/>
-      <c r="AF33" s="71"/>
-      <c r="AG33" s="71"/>
-      <c r="AH33" s="71"/>
-      <c r="AI33" s="71"/>
-      <c r="AJ33" s="71"/>
-      <c r="AK33" s="72"/>
+      <c r="AB33" s="86"/>
+      <c r="AC33" s="86"/>
+      <c r="AD33" s="86"/>
+      <c r="AE33" s="86"/>
+      <c r="AF33" s="86"/>
+      <c r="AG33" s="86"/>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="86"/>
+      <c r="AJ33" s="86"/>
+      <c r="AK33" s="87"/>
     </row>
     <row r="34" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="115"/>
-      <c r="B34" s="73" t="s">
+      <c r="A34" s="104"/>
+      <c r="B34" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
+      <c r="C34" s="137"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="136" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="137"/>
+      <c r="L34" s="137"/>
+      <c r="M34" s="153" t="s">
+        <v>153</v>
+      </c>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="86"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
@@ -4353,102 +4331,100 @@
       <c r="AK34" s="22"/>
     </row>
     <row r="35" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="115"/>
-      <c r="B35" s="73" t="s">
+      <c r="A35" s="104"/>
+      <c r="B35" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
+      <c r="C35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
       <c r="U35" s="21"/>
-      <c r="V35" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
-      <c r="AD35" s="71"/>
-      <c r="AE35" s="71"/>
-      <c r="AF35" s="71"/>
-      <c r="AG35" s="71"/>
-      <c r="AH35" s="71"/>
-      <c r="AI35" s="71"/>
-      <c r="AJ35" s="71"/>
-      <c r="AK35" s="72"/>
+      <c r="V35" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="W35" s="86"/>
+      <c r="X35" s="86"/>
+      <c r="Y35" s="86"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="86"/>
+      <c r="AB35" s="86"/>
+      <c r="AC35" s="86"/>
+      <c r="AD35" s="86"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="86"/>
+      <c r="AG35" s="86"/>
+      <c r="AH35" s="86"/>
+      <c r="AI35" s="86"/>
+      <c r="AJ35" s="86"/>
+      <c r="AK35" s="87"/>
     </row>
     <row r="36" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="115"/>
-      <c r="B36" s="73" t="s">
+      <c r="A36" s="104"/>
+      <c r="B36" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="71"/>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="71"/>
-      <c r="AH36" s="71"/>
-      <c r="AI36" s="71"/>
-      <c r="AJ36" s="71"/>
-      <c r="AK36" s="72"/>
+      <c r="C36" s="137"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
+      <c r="R36" s="86"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="86"/>
+      <c r="U36" s="86"/>
+      <c r="V36" s="86"/>
+      <c r="W36" s="86"/>
+      <c r="X36" s="86"/>
+      <c r="Y36" s="86"/>
+      <c r="Z36" s="86"/>
+      <c r="AA36" s="86"/>
+      <c r="AB36" s="86"/>
+      <c r="AC36" s="86"/>
+      <c r="AD36" s="86"/>
+      <c r="AE36" s="86"/>
+      <c r="AF36" s="86"/>
+      <c r="AG36" s="86"/>
+      <c r="AH36" s="86"/>
+      <c r="AI36" s="86"/>
+      <c r="AJ36" s="86"/>
+      <c r="AK36" s="87"/>
     </row>
     <row r="37" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="115"/>
-      <c r="B37" s="73" t="s">
+      <c r="A37" s="104"/>
+      <c r="B37" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
+      <c r="C37" s="137"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="138"/>
       <c r="G37" s="21"/>
       <c r="H37" s="21" t="s">
         <v>35</v>
@@ -4472,63 +4448,63 @@
       <c r="Y37" s="21"/>
       <c r="Z37" s="21"/>
       <c r="AA37" s="21"/>
-      <c r="AB37" s="71"/>
-      <c r="AC37" s="71"/>
-      <c r="AD37" s="71"/>
-      <c r="AE37" s="71"/>
-      <c r="AF37" s="71"/>
-      <c r="AG37" s="71"/>
-      <c r="AH37" s="71"/>
-      <c r="AI37" s="71"/>
-      <c r="AJ37" s="71"/>
-      <c r="AK37" s="72"/>
+      <c r="AB37" s="86"/>
+      <c r="AC37" s="86"/>
+      <c r="AD37" s="86"/>
+      <c r="AE37" s="86"/>
+      <c r="AF37" s="86"/>
+      <c r="AG37" s="86"/>
+      <c r="AH37" s="86"/>
+      <c r="AI37" s="86"/>
+      <c r="AJ37" s="86"/>
+      <c r="AK37" s="87"/>
     </row>
     <row r="38" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="115"/>
-      <c r="B38" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="78"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="150" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="152"/>
       <c r="G38" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="23"/>
+      <c r="I38" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="80" t="s">
+      <c r="J38" s="154"/>
+      <c r="K38" s="154"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="154"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="77" t="s">
+      <c r="Q38" s="151"/>
+      <c r="R38" s="151"/>
+      <c r="S38" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="Q38" s="77"/>
-      <c r="R38" s="77"/>
-      <c r="S38" s="80" t="s">
+      <c r="T38" s="154"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="T38" s="80"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="77" t="s">
+      <c r="W38" s="151"/>
+      <c r="X38" s="151"/>
+      <c r="Y38" s="151"/>
+      <c r="Z38" s="154" t="s">
         <v>97</v>
       </c>
-      <c r="W38" s="77"/>
-      <c r="X38" s="77"/>
-      <c r="Y38" s="77"/>
-      <c r="Z38" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA38" s="80"/>
-      <c r="AB38" s="80"/>
-      <c r="AC38" s="80"/>
-      <c r="AD38" s="80"/>
-      <c r="AE38" s="80"/>
+      <c r="AA38" s="154"/>
+      <c r="AB38" s="154"/>
+      <c r="AC38" s="154"/>
+      <c r="AD38" s="154"/>
+      <c r="AE38" s="154"/>
       <c r="AF38" s="23"/>
       <c r="AG38" s="23"/>
       <c r="AH38" s="23"/>
@@ -4537,510 +4513,510 @@
       <c r="AK38" s="24"/>
     </row>
     <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="115"/>
-      <c r="B39" s="109" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="68"/>
-      <c r="Z39" s="68"/>
-      <c r="AA39" s="68"/>
-      <c r="AB39" s="68"/>
-      <c r="AC39" s="68"/>
-      <c r="AD39" s="68"/>
-      <c r="AE39" s="68"/>
-      <c r="AF39" s="68"/>
-      <c r="AG39" s="68"/>
-      <c r="AH39" s="68"/>
-      <c r="AI39" s="68"/>
-      <c r="AJ39" s="68"/>
-      <c r="AK39" s="69"/>
+      <c r="A39" s="104"/>
+      <c r="B39" s="127" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
+      <c r="N39" s="148"/>
+      <c r="O39" s="148"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="148"/>
+      <c r="R39" s="148"/>
+      <c r="S39" s="148"/>
+      <c r="T39" s="148"/>
+      <c r="U39" s="148"/>
+      <c r="V39" s="148"/>
+      <c r="W39" s="148"/>
+      <c r="X39" s="148"/>
+      <c r="Y39" s="148"/>
+      <c r="Z39" s="148"/>
+      <c r="AA39" s="148"/>
+      <c r="AB39" s="148"/>
+      <c r="AC39" s="148"/>
+      <c r="AD39" s="148"/>
+      <c r="AE39" s="148"/>
+      <c r="AF39" s="148"/>
+      <c r="AG39" s="148"/>
+      <c r="AH39" s="148"/>
+      <c r="AI39" s="148"/>
+      <c r="AJ39" s="148"/>
+      <c r="AK39" s="149"/>
     </row>
     <row r="40" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="115"/>
-      <c r="B40" s="111" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
-      <c r="O40" s="112"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="113"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="112"/>
-      <c r="V40" s="112"/>
-      <c r="W40" s="112"/>
-      <c r="X40" s="112"/>
-      <c r="Y40" s="112"/>
-      <c r="Z40" s="112"/>
-      <c r="AA40" s="112"/>
-      <c r="AB40" s="112"/>
-      <c r="AC40" s="112"/>
-      <c r="AD40" s="112"/>
-      <c r="AE40" s="112"/>
-      <c r="AF40" s="112"/>
-      <c r="AG40" s="112"/>
-      <c r="AH40" s="112"/>
-      <c r="AI40" s="112"/>
-      <c r="AJ40" s="112"/>
-      <c r="AK40" s="114"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="129" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
+      <c r="F40" s="130"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="130"/>
+      <c r="L40" s="131"/>
+      <c r="M40" s="131"/>
+      <c r="N40" s="131"/>
+      <c r="O40" s="130"/>
+      <c r="P40" s="130"/>
+      <c r="Q40" s="131"/>
+      <c r="R40" s="131"/>
+      <c r="S40" s="131"/>
+      <c r="T40" s="131"/>
+      <c r="U40" s="130"/>
+      <c r="V40" s="130"/>
+      <c r="W40" s="130"/>
+      <c r="X40" s="130"/>
+      <c r="Y40" s="130"/>
+      <c r="Z40" s="130"/>
+      <c r="AA40" s="130"/>
+      <c r="AB40" s="130"/>
+      <c r="AC40" s="130"/>
+      <c r="AD40" s="130"/>
+      <c r="AE40" s="130"/>
+      <c r="AF40" s="130"/>
+      <c r="AG40" s="130"/>
+      <c r="AH40" s="130"/>
+      <c r="AI40" s="130"/>
+      <c r="AJ40" s="130"/>
+      <c r="AK40" s="132"/>
     </row>
     <row r="41" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="163" t="s">
+      <c r="A41" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B41" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="B41" s="148" t="s">
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="151" t="s">
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="154"/>
-      <c r="K41" s="148" t="s">
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-      <c r="N41" s="150"/>
-      <c r="O41" s="153" t="s">
+      <c r="P41" s="58"/>
+      <c r="Q41" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="P41" s="162"/>
-      <c r="Q41" s="148" t="s">
+      <c r="R41" s="49"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="R41" s="149"/>
-      <c r="S41" s="149"/>
-      <c r="T41" s="150"/>
-      <c r="U41" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
-      <c r="AC41" s="45"/>
-      <c r="AD41" s="45"/>
-      <c r="AE41" s="45"/>
-      <c r="AF41" s="45"/>
-      <c r="AG41" s="45"/>
-      <c r="AH41" s="45"/>
-      <c r="AI41" s="45"/>
-      <c r="AJ41" s="45"/>
-      <c r="AK41" s="46"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="52"/>
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="52"/>
+      <c r="AA41" s="52"/>
+      <c r="AB41" s="52"/>
+      <c r="AC41" s="52"/>
+      <c r="AD41" s="52"/>
+      <c r="AE41" s="52"/>
+      <c r="AF41" s="52"/>
+      <c r="AG41" s="52"/>
+      <c r="AH41" s="52"/>
+      <c r="AI41" s="52"/>
+      <c r="AJ41" s="52"/>
+      <c r="AK41" s="53"/>
     </row>
     <row r="42" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="164"/>
-      <c r="B42" s="148" t="s">
+      <c r="A42" s="55"/>
+      <c r="B42" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="59" t="s">
         <v>193</v>
       </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="151" t="s">
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="154"/>
-      <c r="K42" s="148" t="s">
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
-      <c r="N42" s="150"/>
-      <c r="O42" s="151" t="s">
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
+      <c r="S42" s="60"/>
+      <c r="T42" s="61"/>
+      <c r="U42" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="P42" s="152"/>
-      <c r="Q42" s="152"/>
-      <c r="R42" s="152"/>
-      <c r="S42" s="152"/>
-      <c r="T42" s="154"/>
-      <c r="U42" s="38" t="s">
+      <c r="V42" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="V42" s="166" t="s">
+      <c r="W42" s="52"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="W42" s="160"/>
-      <c r="X42" s="160"/>
-      <c r="Y42" s="160"/>
-      <c r="Z42" s="160"/>
-      <c r="AA42" s="167"/>
-      <c r="AB42" s="148" t="s">
+      <c r="AC42" s="49"/>
+      <c r="AD42" s="49"/>
+      <c r="AE42" s="49"/>
+      <c r="AF42" s="50"/>
+      <c r="AG42" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="AC42" s="149"/>
-      <c r="AD42" s="149"/>
-      <c r="AE42" s="149"/>
-      <c r="AF42" s="150"/>
-      <c r="AG42" s="152" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH42" s="152"/>
-      <c r="AI42" s="152"/>
-      <c r="AJ42" s="152"/>
-      <c r="AK42" s="154"/>
+      <c r="AH42" s="60"/>
+      <c r="AI42" s="60"/>
+      <c r="AJ42" s="60"/>
+      <c r="AK42" s="61"/>
     </row>
     <row r="43" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="165"/>
-      <c r="B43" s="148" t="s">
+      <c r="A43" s="56"/>
+      <c r="B43" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="149"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="151" t="s">
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="154"/>
-      <c r="K43" s="148" t="s">
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
-      <c r="N43" s="150"/>
-      <c r="O43" s="152" t="s">
+      <c r="P43" s="60"/>
+      <c r="Q43" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="P43" s="152"/>
-      <c r="Q43" s="148" t="s">
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="R43" s="149"/>
-      <c r="S43" s="149"/>
-      <c r="T43" s="150"/>
-      <c r="U43" s="166" t="s">
-        <v>206</v>
-      </c>
-      <c r="V43" s="160"/>
-      <c r="W43" s="160"/>
-      <c r="X43" s="160"/>
-      <c r="Y43" s="160"/>
-      <c r="Z43" s="160"/>
-      <c r="AA43" s="160"/>
-      <c r="AB43" s="160"/>
-      <c r="AC43" s="160"/>
-      <c r="AD43" s="160"/>
-      <c r="AE43" s="160"/>
-      <c r="AF43" s="160"/>
-      <c r="AG43" s="160"/>
-      <c r="AH43" s="160"/>
-      <c r="AI43" s="160"/>
-      <c r="AJ43" s="160"/>
-      <c r="AK43" s="167"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="52"/>
+      <c r="AA43" s="52"/>
+      <c r="AB43" s="52"/>
+      <c r="AC43" s="52"/>
+      <c r="AD43" s="52"/>
+      <c r="AE43" s="52"/>
+      <c r="AF43" s="52"/>
+      <c r="AG43" s="52"/>
+      <c r="AH43" s="52"/>
+      <c r="AI43" s="52"/>
+      <c r="AJ43" s="52"/>
+      <c r="AK43" s="53"/>
     </row>
     <row r="44" spans="1:37" ht="198" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="66"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="66"/>
-      <c r="AI44" s="66"/>
-      <c r="AJ44" s="66"/>
-      <c r="AK44" s="67"/>
+      <c r="B44" s="145" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="146"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="146"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="146"/>
+      <c r="K44" s="146"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="146"/>
+      <c r="N44" s="146"/>
+      <c r="O44" s="146"/>
+      <c r="P44" s="146"/>
+      <c r="Q44" s="146"/>
+      <c r="R44" s="146"/>
+      <c r="S44" s="146"/>
+      <c r="T44" s="146"/>
+      <c r="U44" s="146"/>
+      <c r="V44" s="146"/>
+      <c r="W44" s="146"/>
+      <c r="X44" s="146"/>
+      <c r="Y44" s="146"/>
+      <c r="Z44" s="146"/>
+      <c r="AA44" s="146"/>
+      <c r="AB44" s="146"/>
+      <c r="AC44" s="146"/>
+      <c r="AD44" s="146"/>
+      <c r="AE44" s="146"/>
+      <c r="AF44" s="146"/>
+      <c r="AG44" s="146"/>
+      <c r="AH44" s="146"/>
+      <c r="AI44" s="146"/>
+      <c r="AJ44" s="146"/>
+      <c r="AK44" s="147"/>
     </row>
     <row r="45" spans="1:37" ht="71.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="66"/>
-      <c r="R45" s="66"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="66"/>
-      <c r="U45" s="66"/>
-      <c r="V45" s="66"/>
-      <c r="W45" s="66"/>
-      <c r="X45" s="66"/>
-      <c r="Y45" s="66"/>
-      <c r="Z45" s="66"/>
-      <c r="AA45" s="66"/>
-      <c r="AB45" s="66"/>
-      <c r="AC45" s="66"/>
-      <c r="AD45" s="66"/>
-      <c r="AE45" s="66"/>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="66"/>
-      <c r="AI45" s="66"/>
-      <c r="AJ45" s="66"/>
-      <c r="AK45" s="67"/>
+      <c r="B45" s="145" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="146"/>
+      <c r="D45" s="146"/>
+      <c r="E45" s="146"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="146"/>
+      <c r="J45" s="146"/>
+      <c r="K45" s="146"/>
+      <c r="L45" s="146"/>
+      <c r="M45" s="146"/>
+      <c r="N45" s="146"/>
+      <c r="O45" s="146"/>
+      <c r="P45" s="146"/>
+      <c r="Q45" s="146"/>
+      <c r="R45" s="146"/>
+      <c r="S45" s="146"/>
+      <c r="T45" s="146"/>
+      <c r="U45" s="146"/>
+      <c r="V45" s="146"/>
+      <c r="W45" s="146"/>
+      <c r="X45" s="146"/>
+      <c r="Y45" s="146"/>
+      <c r="Z45" s="146"/>
+      <c r="AA45" s="146"/>
+      <c r="AB45" s="146"/>
+      <c r="AC45" s="146"/>
+      <c r="AD45" s="146"/>
+      <c r="AE45" s="146"/>
+      <c r="AF45" s="146"/>
+      <c r="AG45" s="146"/>
+      <c r="AH45" s="146"/>
+      <c r="AI45" s="146"/>
+      <c r="AJ45" s="146"/>
+      <c r="AK45" s="147"/>
     </row>
     <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="96" t="s">
+      <c r="A46" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="98"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="99"/>
-      <c r="M46" s="99"/>
-      <c r="N46" s="99"/>
-      <c r="O46" s="99"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="94"/>
+      <c r="K46" s="94"/>
+      <c r="L46" s="94"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="87" t="s">
+      <c r="R46" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
-      <c r="W46" s="89"/>
-      <c r="X46" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y46" s="104"/>
-      <c r="Z46" s="104"/>
-      <c r="AA46" s="104"/>
-      <c r="AB46" s="104"/>
-      <c r="AC46" s="104"/>
-      <c r="AD46" s="104"/>
-      <c r="AE46" s="104"/>
-      <c r="AF46" s="104"/>
-      <c r="AG46" s="104"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="69"/>
+      <c r="X46" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y46" s="84"/>
+      <c r="Z46" s="84"/>
+      <c r="AA46" s="84"/>
+      <c r="AB46" s="84"/>
+      <c r="AC46" s="84"/>
+      <c r="AD46" s="84"/>
+      <c r="AE46" s="84"/>
+      <c r="AF46" s="84"/>
+      <c r="AG46" s="84"/>
       <c r="AH46" s="6"/>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
       <c r="AK46" s="7"/>
     </row>
     <row r="47" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="97"/>
-      <c r="B47" s="107" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="108"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="108"/>
-      <c r="P47" s="47" t="s">
+      <c r="A47" s="122"/>
+      <c r="B47" s="123" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="124"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="124"/>
+      <c r="O47" s="124"/>
+      <c r="P47" s="45" t="s">
         <v>7</v>
       </c>
       <c r="Q47" s="9"/>
-      <c r="R47" s="100"/>
-      <c r="S47" s="101"/>
-      <c r="T47" s="101"/>
-      <c r="U47" s="101"/>
-      <c r="V47" s="101"/>
-      <c r="W47" s="102"/>
-      <c r="X47" s="105"/>
-      <c r="Y47" s="106"/>
-      <c r="Z47" s="106"/>
-      <c r="AA47" s="106"/>
-      <c r="AB47" s="106"/>
-      <c r="AC47" s="106"/>
-      <c r="AD47" s="106"/>
-      <c r="AE47" s="106"/>
-      <c r="AF47" s="106"/>
-      <c r="AG47" s="106"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="96"/>
+      <c r="T47" s="96"/>
+      <c r="U47" s="96"/>
+      <c r="V47" s="96"/>
+      <c r="W47" s="99"/>
+      <c r="X47" s="77"/>
+      <c r="Y47" s="76"/>
+      <c r="Z47" s="76"/>
+      <c r="AA47" s="76"/>
+      <c r="AB47" s="76"/>
+      <c r="AC47" s="76"/>
+      <c r="AD47" s="76"/>
+      <c r="AE47" s="76"/>
+      <c r="AF47" s="76"/>
+      <c r="AG47" s="76"/>
       <c r="AH47" s="13"/>
       <c r="AI47" s="13"/>
       <c r="AJ47" s="13"/>
       <c r="AK47" s="14"/>
     </row>
     <row r="48" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="97"/>
-      <c r="B48" s="81" t="s">
+      <c r="A48" s="122"/>
+      <c r="B48" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="83"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="81"/>
       <c r="E48" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="57" t="s">
+      <c r="F48" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="57"/>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="57"/>
-      <c r="AA48" s="57"/>
-      <c r="AB48" s="57"/>
-      <c r="AC48" s="57"/>
-      <c r="AD48" s="57"/>
-      <c r="AE48" s="57"/>
-      <c r="AF48" s="57"/>
-      <c r="AG48" s="57"/>
-      <c r="AH48" s="57"/>
-      <c r="AI48" s="57"/>
-      <c r="AJ48" s="57"/>
-      <c r="AK48" s="58"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="125"/>
+      <c r="N48" s="125"/>
+      <c r="O48" s="125"/>
+      <c r="P48" s="125"/>
+      <c r="Q48" s="125"/>
+      <c r="R48" s="125"/>
+      <c r="S48" s="125"/>
+      <c r="T48" s="125"/>
+      <c r="U48" s="125"/>
+      <c r="V48" s="125"/>
+      <c r="W48" s="125"/>
+      <c r="X48" s="125"/>
+      <c r="Y48" s="125"/>
+      <c r="Z48" s="125"/>
+      <c r="AA48" s="125"/>
+      <c r="AB48" s="125"/>
+      <c r="AC48" s="125"/>
+      <c r="AD48" s="125"/>
+      <c r="AE48" s="125"/>
+      <c r="AF48" s="125"/>
+      <c r="AG48" s="125"/>
+      <c r="AH48" s="125"/>
+      <c r="AI48" s="125"/>
+      <c r="AJ48" s="125"/>
+      <c r="AK48" s="126"/>
     </row>
     <row r="49" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="97"/>
-      <c r="B49" s="81" t="s">
+      <c r="A49" s="122"/>
+      <c r="B49" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="81" t="s">
+      <c r="C49" s="80"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="82"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
-      <c r="Q49" s="86"/>
-      <c r="R49" s="81" t="s">
+      <c r="F49" s="80"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="S49" s="82"/>
-      <c r="T49" s="83"/>
-      <c r="U49" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="V49" s="85"/>
-      <c r="W49" s="85"/>
-      <c r="X49" s="85"/>
-      <c r="Y49" s="85"/>
-      <c r="Z49" s="85"/>
-      <c r="AA49" s="85"/>
-      <c r="AB49" s="85"/>
-      <c r="AC49" s="85"/>
-      <c r="AD49" s="85"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="81"/>
+      <c r="U49" s="70" t="s">
+        <v>171</v>
+      </c>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="71"/>
+      <c r="AA49" s="71"/>
+      <c r="AB49" s="71"/>
+      <c r="AC49" s="71"/>
+      <c r="AD49" s="71"/>
       <c r="AE49" s="10"/>
       <c r="AF49" s="10"/>
       <c r="AG49" s="10"/>
@@ -5050,147 +5026,206 @@
       <c r="AK49" s="11"/>
     </row>
     <row r="50" spans="1:37" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="97"/>
-      <c r="B50" s="87" t="s">
+      <c r="A50" s="122"/>
+      <c r="B50" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="88"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="91"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="91"/>
-      <c r="O50" s="91"/>
-      <c r="P50" s="91"/>
-      <c r="Q50" s="91"/>
-      <c r="R50" s="91"/>
-      <c r="S50" s="91"/>
-      <c r="T50" s="91"/>
-      <c r="U50" s="91"/>
-      <c r="V50" s="91"/>
-      <c r="W50" s="91"/>
-      <c r="X50" s="91"/>
-      <c r="Y50" s="91"/>
-      <c r="Z50" s="91"/>
-      <c r="AA50" s="91"/>
-      <c r="AB50" s="91"/>
-      <c r="AC50" s="91"/>
-      <c r="AD50" s="91"/>
-      <c r="AE50" s="91"/>
-      <c r="AF50" s="91"/>
-      <c r="AG50" s="91"/>
-      <c r="AH50" s="91"/>
-      <c r="AI50" s="91"/>
-      <c r="AJ50" s="91"/>
-      <c r="AK50" s="92"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="140"/>
+      <c r="K50" s="140"/>
+      <c r="L50" s="140"/>
+      <c r="M50" s="140"/>
+      <c r="N50" s="140"/>
+      <c r="O50" s="140"/>
+      <c r="P50" s="140"/>
+      <c r="Q50" s="140"/>
+      <c r="R50" s="140"/>
+      <c r="S50" s="140"/>
+      <c r="T50" s="140"/>
+      <c r="U50" s="140"/>
+      <c r="V50" s="140"/>
+      <c r="W50" s="140"/>
+      <c r="X50" s="140"/>
+      <c r="Y50" s="140"/>
+      <c r="Z50" s="140"/>
+      <c r="AA50" s="140"/>
+      <c r="AB50" s="140"/>
+      <c r="AC50" s="140"/>
+      <c r="AD50" s="140"/>
+      <c r="AE50" s="140"/>
+      <c r="AF50" s="140"/>
+      <c r="AG50" s="140"/>
+      <c r="AH50" s="140"/>
+      <c r="AI50" s="140"/>
+      <c r="AJ50" s="140"/>
+      <c r="AK50" s="141"/>
     </row>
     <row r="51" spans="1:37" ht="59.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A51" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="94"/>
-      <c r="F51" s="94"/>
-      <c r="G51" s="94"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
-      <c r="O51" s="94"/>
-      <c r="P51" s="94"/>
-      <c r="Q51" s="94"/>
-      <c r="R51" s="94"/>
-      <c r="S51" s="94"/>
-      <c r="T51" s="94"/>
-      <c r="U51" s="94"/>
-      <c r="V51" s="94"/>
-      <c r="W51" s="94"/>
-      <c r="X51" s="94"/>
-      <c r="Y51" s="94"/>
-      <c r="Z51" s="94"/>
-      <c r="AA51" s="94"/>
-      <c r="AB51" s="94"/>
-      <c r="AC51" s="94"/>
-      <c r="AD51" s="94"/>
-      <c r="AE51" s="94"/>
-      <c r="AF51" s="94"/>
-      <c r="AG51" s="94"/>
-      <c r="AH51" s="94"/>
-      <c r="AI51" s="94"/>
-      <c r="AJ51" s="94"/>
-      <c r="AK51" s="95"/>
+      <c r="B51" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="143"/>
+      <c r="D51" s="143"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="143"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="143"/>
+      <c r="J51" s="143"/>
+      <c r="K51" s="143"/>
+      <c r="L51" s="143"/>
+      <c r="M51" s="143"/>
+      <c r="N51" s="143"/>
+      <c r="O51" s="143"/>
+      <c r="P51" s="143"/>
+      <c r="Q51" s="143"/>
+      <c r="R51" s="143"/>
+      <c r="S51" s="143"/>
+      <c r="T51" s="143"/>
+      <c r="U51" s="143"/>
+      <c r="V51" s="143"/>
+      <c r="W51" s="143"/>
+      <c r="X51" s="143"/>
+      <c r="Y51" s="143"/>
+      <c r="Z51" s="143"/>
+      <c r="AA51" s="143"/>
+      <c r="AB51" s="143"/>
+      <c r="AC51" s="143"/>
+      <c r="AD51" s="143"/>
+      <c r="AE51" s="143"/>
+      <c r="AF51" s="143"/>
+      <c r="AG51" s="143"/>
+      <c r="AH51" s="143"/>
+      <c r="AI51" s="143"/>
+      <c r="AJ51" s="143"/>
+      <c r="AK51" s="144"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="189">
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="U43:AK43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:T41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="O42:T42"/>
-    <mergeCell ref="V42:AA42"/>
-    <mergeCell ref="AB42:AF42"/>
-    <mergeCell ref="AG42:AK42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="U20:AK20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G22:AK22"/>
-    <mergeCell ref="G21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:AK21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B18:AK18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:Y19"/>
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="AD19:AK19"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="P13:W13"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="R10:AK10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="V11:AK11"/>
-    <mergeCell ref="C9:F9"/>
+  <mergeCells count="190">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="G9:AK9"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:Y4"/>
+    <mergeCell ref="Z4:AE4"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="V5:Z5"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="B44:AK44"/>
+    <mergeCell ref="H39:AK39"/>
+    <mergeCell ref="G27:P27"/>
+    <mergeCell ref="S27:AK27"/>
+    <mergeCell ref="G29:T29"/>
+    <mergeCell ref="V29:AK29"/>
+    <mergeCell ref="G30:T30"/>
+    <mergeCell ref="V30:AK30"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:AK36"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G31:T31"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="Z38:AE38"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="AB37:AK37"/>
+    <mergeCell ref="V35:AK35"/>
+    <mergeCell ref="V31:AK31"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:Q49"/>
+    <mergeCell ref="R49:T49"/>
+    <mergeCell ref="U49:AD49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:AK50"/>
+    <mergeCell ref="B51:AK51"/>
+    <mergeCell ref="B45:AK45"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="B46:O46"/>
+    <mergeCell ref="R46:W47"/>
+    <mergeCell ref="X46:AG47"/>
+    <mergeCell ref="B47:O47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J48:AK48"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:AK40"/>
+    <mergeCell ref="A25:A40"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="AB33:AK33"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:AK28"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G35:T35"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Z24:AC24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="Q24:Y24"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="Q23:Y23"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:AK16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:Y17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="AD17:AK17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:AK12"/>
+    <mergeCell ref="AB13:AH13"/>
+    <mergeCell ref="AI13:AK13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="P14:V14"/>
+    <mergeCell ref="W14:AC14"/>
+    <mergeCell ref="AD14:AJ14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:Q15"/>
     <mergeCell ref="G32:T32"/>
     <mergeCell ref="V32:AK32"/>
     <mergeCell ref="G25:AK25"/>
@@ -5215,118 +5250,60 @@
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:AK16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:Y17"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="AD17:AK17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:AK12"/>
-    <mergeCell ref="AB13:AH13"/>
-    <mergeCell ref="AI13:AK13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:O14"/>
-    <mergeCell ref="P14:V14"/>
-    <mergeCell ref="W14:AC14"/>
-    <mergeCell ref="AD14:AJ14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Z24:AC24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="Q24:Y24"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="Q23:Y23"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="B46:O46"/>
-    <mergeCell ref="R46:W47"/>
-    <mergeCell ref="X46:AG47"/>
-    <mergeCell ref="B47:O47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J48:AK48"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:AK40"/>
-    <mergeCell ref="A25:A40"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="AB33:AK33"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:AK28"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G35:T35"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:Q49"/>
-    <mergeCell ref="R49:T49"/>
-    <mergeCell ref="U49:AD49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:AK50"/>
-    <mergeCell ref="B51:AK51"/>
-    <mergeCell ref="B45:AK45"/>
-    <mergeCell ref="B44:AK44"/>
-    <mergeCell ref="H39:AK39"/>
-    <mergeCell ref="G27:P27"/>
-    <mergeCell ref="S27:AK27"/>
-    <mergeCell ref="G29:T29"/>
-    <mergeCell ref="V29:AK29"/>
-    <mergeCell ref="G30:T30"/>
-    <mergeCell ref="V30:AK30"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:AK36"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G31:T31"/>
-    <mergeCell ref="G34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="Z38:AE38"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="AB37:AK37"/>
-    <mergeCell ref="V35:AK35"/>
-    <mergeCell ref="V31:AK31"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="G9:AK9"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="V4:Y4"/>
-    <mergeCell ref="Z4:AE4"/>
-    <mergeCell ref="AG7:AI7"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="V5:Z5"/>
-    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="B18:AK18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:Y19"/>
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="AD19:AK19"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="P13:W13"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:AK10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="V11:AK11"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="U20:AK20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G22:AK22"/>
+    <mergeCell ref="G21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:AK21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="U43:AK43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:T41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="O42:T42"/>
+    <mergeCell ref="V42:AA42"/>
+    <mergeCell ref="AB42:AF42"/>
+    <mergeCell ref="AG42:AK42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="U41:AK41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">

--- a/public/consultation_template.xlsx
+++ b/public/consultation_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\satsu\anshin-house-db\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C23734-8D92-4588-A321-DE17D6462FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B011FC9-BF3A-4D7F-B83B-564ABE943A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="214">
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
@@ -1230,6 +1230,10 @@
   </si>
   <si>
     <t>{{route_disability_center_text}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{income_injury}}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1850,7 +1854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1992,21 +1996,354 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2016,344 +2353,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2680,8 +2681,8 @@
   </sheetPr>
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24:W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2744,288 +2745,288 @@
       <c r="AK1" s="15"/>
     </row>
     <row r="2" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="134" t="s">
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="136" t="s">
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="134" t="s">
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="134"/>
-      <c r="AH2" s="136" t="s">
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="134" t="s">
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="134"/>
+      <c r="AK2" s="100"/>
     </row>
     <row r="3" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="109" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="165"/>
-      <c r="M3" s="165"/>
-      <c r="N3" s="165"/>
-      <c r="O3" s="165"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="165"/>
-      <c r="S3" s="165"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="165"/>
-      <c r="AA3" s="165"/>
-      <c r="AB3" s="165"/>
-      <c r="AC3" s="165"/>
-      <c r="AD3" s="165"/>
-      <c r="AE3" s="165"/>
-      <c r="AF3" s="165"/>
-      <c r="AG3" s="165"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="165"/>
-      <c r="AJ3" s="165"/>
-      <c r="AK3" s="166"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="110"/>
     </row>
     <row r="4" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="48"/>
+      <c r="F4" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="47" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47" t="s">
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47" t="s">
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="162" t="s">
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="AC4" s="162"/>
-      <c r="AD4" s="162"/>
-      <c r="AE4" s="162"/>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="162"/>
-      <c r="AK4" s="163"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="51"/>
     </row>
     <row r="5" spans="1:37" ht="26" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="31"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="56" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="47" t="s">
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="N5" s="47"/>
-      <c r="O5" s="56" t="s">
+      <c r="N5" s="48"/>
+      <c r="O5" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="47" t="s">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="164" t="s">
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="57"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="52"/>
     </row>
     <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47" t="s">
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47" t="s">
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47" t="s">
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47" t="s">
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47" t="s">
+      <c r="W6" s="48"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="48"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47" t="s">
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="56" t="s">
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="48"/>
+      <c r="AH6" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="57"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="52"/>
     </row>
     <row r="7" spans="1:37" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="32"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="48" t="s">
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -3055,110 +3056,110 @@
       <c r="A8" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
       <c r="P8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="80" t="s">
+      <c r="R8" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="96" t="s">
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="V8" s="97"/>
-      <c r="W8" s="97"/>
-      <c r="X8" s="135" t="s">
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="53" t="s">
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52" t="s">
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163" t="s">
         <v>116</v>
       </c>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52" t="s">
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52" t="s">
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="163"/>
+      <c r="AJ8" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="AK8" s="54"/>
+      <c r="AK8" s="165"/>
     </row>
     <row r="9" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="153" t="s">
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="99"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="154" t="s">
+      <c r="Q9" s="89"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55" t="s">
+      <c r="AB9" s="90"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="55" t="s">
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="AI9" s="55"/>
-      <c r="AJ9" s="55"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
       <c r="AK9" s="25" t="s">
         <v>121</v>
       </c>
@@ -3170,120 +3171,120 @@
       <c r="B10" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="50" t="s">
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="51"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+      <c r="AB10" s="132"/>
+      <c r="AC10" s="132"/>
+      <c r="AD10" s="132"/>
+      <c r="AE10" s="132"/>
+      <c r="AF10" s="132"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="132"/>
+      <c r="AJ10" s="132"/>
+      <c r="AK10" s="133"/>
     </row>
     <row r="11" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="74" t="s">
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="77" t="s">
+      <c r="P11" s="84"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="150"/>
-      <c r="AC11" s="150"/>
-      <c r="AD11" s="150"/>
-      <c r="AE11" s="150"/>
-      <c r="AF11" s="150"/>
-      <c r="AG11" s="150"/>
-      <c r="AH11" s="150"/>
-      <c r="AI11" s="150"/>
-      <c r="AJ11" s="150"/>
-      <c r="AK11" s="151"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="86"/>
+      <c r="AC11" s="86"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="86"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="87"/>
     </row>
     <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="145" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="62" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="97"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="145" t="s">
+      <c r="H12" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="97"/>
+      <c r="I12" s="88"/>
       <c r="J12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="145" t="s">
+      <c r="K12" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="L12" s="97"/>
+      <c r="L12" s="88"/>
       <c r="M12" s="39" t="s">
         <v>15</v>
       </c>
@@ -3292,199 +3293,199 @@
       <c r="P12" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="Q12" s="145" t="s">
+      <c r="Q12" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="R12" s="97"/>
+      <c r="R12" s="88"/>
       <c r="S12" s="45" t="s">
         <v>16</v>
       </c>
       <c r="T12" s="45"/>
       <c r="U12" s="12"/>
-      <c r="V12" s="152"/>
-      <c r="W12" s="150"/>
-      <c r="X12" s="150"/>
-      <c r="Y12" s="150"/>
-      <c r="Z12" s="150"/>
-      <c r="AA12" s="150"/>
-      <c r="AB12" s="150"/>
-      <c r="AC12" s="150"/>
-      <c r="AD12" s="150"/>
-      <c r="AE12" s="150"/>
-      <c r="AF12" s="150"/>
-      <c r="AG12" s="150"/>
-      <c r="AH12" s="150"/>
-      <c r="AI12" s="150"/>
-      <c r="AJ12" s="150"/>
-      <c r="AK12" s="151"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="86"/>
+      <c r="AJ12" s="86"/>
+      <c r="AK12" s="87"/>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="124"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="124"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="124"/>
-      <c r="U13" s="124"/>
-      <c r="V13" s="124"/>
-      <c r="W13" s="124"/>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="124"/>
-      <c r="Z13" s="124"/>
-      <c r="AA13" s="124"/>
-      <c r="AB13" s="124"/>
-      <c r="AC13" s="124"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="124"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="124"/>
-      <c r="AI13" s="124"/>
-      <c r="AJ13" s="124"/>
-      <c r="AK13" s="125"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="118"/>
+      <c r="O13" s="118"/>
+      <c r="P13" s="118"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="118"/>
+      <c r="AE13" s="118"/>
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="118"/>
+      <c r="AH13" s="118"/>
+      <c r="AI13" s="118"/>
+      <c r="AJ13" s="118"/>
+      <c r="AK13" s="119"/>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="93"/>
-      <c r="B14" s="98" t="s">
+      <c r="A14" s="103"/>
+      <c r="B14" s="81" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-      <c r="P14" s="149" t="s">
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="99" t="s">
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="99"/>
-      <c r="Z14" s="99"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="99" t="s">
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="99"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="99"/>
-      <c r="AH14" s="99"/>
-      <c r="AI14" s="126" t="s">
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="127"/>
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="121"/>
     </row>
     <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="96" t="s">
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="96" t="s">
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="96" t="s">
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="96" t="s">
+      <c r="X15" s="88"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="88"/>
+      <c r="AD15" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="AE15" s="97"/>
-      <c r="AF15" s="97"/>
-      <c r="AG15" s="97"/>
-      <c r="AH15" s="97"/>
-      <c r="AI15" s="97"/>
-      <c r="AJ15" s="97"/>
+      <c r="AE15" s="88"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="88"/>
+      <c r="AH15" s="88"/>
+      <c r="AI15" s="88"/>
+      <c r="AJ15" s="88"/>
       <c r="AK15" s="5"/>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="108"/>
-      <c r="B16" s="77" t="s">
+      <c r="A16" s="112"/>
+      <c r="B16" s="75" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="77" t="s">
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="79"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="77"/>
       <c r="R16" s="18"/>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
@@ -3507,506 +3508,508 @@
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="108"/>
-      <c r="B17" s="74" t="s">
+      <c r="A17" s="112"/>
+      <c r="B17" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="119" t="s">
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="120"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="120"/>
-      <c r="AB17" s="120"/>
-      <c r="AC17" s="120"/>
-      <c r="AD17" s="120"/>
-      <c r="AE17" s="120"/>
-      <c r="AF17" s="120"/>
-      <c r="AG17" s="120"/>
-      <c r="AH17" s="120"/>
-      <c r="AI17" s="120"/>
-      <c r="AJ17" s="120"/>
-      <c r="AK17" s="121"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="114"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="114"/>
+      <c r="AC17" s="114"/>
+      <c r="AD17" s="114"/>
+      <c r="AE17" s="114"/>
+      <c r="AF17" s="114"/>
+      <c r="AG17" s="114"/>
+      <c r="AH17" s="114"/>
+      <c r="AI17" s="114"/>
+      <c r="AJ17" s="114"/>
+      <c r="AK17" s="115"/>
     </row>
     <row r="18" spans="1:37" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93" t="s">
+      <c r="A18" s="103"/>
+      <c r="B18" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="122" t="s">
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="121"/>
-      <c r="Z18" s="74" t="s">
+      <c r="J18" s="114"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="114"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="114"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="114"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="114"/>
+      <c r="W18" s="114"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="115"/>
+      <c r="Z18" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="77" t="s">
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="85"/>
+      <c r="AD18" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="AE18" s="78"/>
-      <c r="AF18" s="78"/>
-      <c r="AG18" s="78"/>
-      <c r="AH18" s="78"/>
-      <c r="AI18" s="78"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="79"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="77"/>
     </row>
     <row r="19" spans="1:37" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="138"/>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="138"/>
-      <c r="S19" s="138"/>
-      <c r="T19" s="138"/>
-      <c r="U19" s="138"/>
-      <c r="V19" s="138"/>
-      <c r="W19" s="138"/>
-      <c r="X19" s="138"/>
-      <c r="Y19" s="138"/>
-      <c r="Z19" s="138"/>
-      <c r="AA19" s="138"/>
-      <c r="AB19" s="138"/>
-      <c r="AC19" s="138"/>
-      <c r="AD19" s="138"/>
-      <c r="AE19" s="138"/>
-      <c r="AF19" s="138"/>
-      <c r="AG19" s="138"/>
-      <c r="AH19" s="138"/>
-      <c r="AI19" s="138"/>
-      <c r="AJ19" s="138"/>
-      <c r="AK19" s="139"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="71"/>
     </row>
     <row r="20" spans="1:37" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="143" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="144"/>
-      <c r="S20" s="144"/>
-      <c r="T20" s="144"/>
-      <c r="U20" s="144"/>
-      <c r="V20" s="144"/>
-      <c r="W20" s="144"/>
-      <c r="X20" s="144"/>
-      <c r="Y20" s="146"/>
-      <c r="Z20" s="80" t="s">
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="82"/>
-      <c r="AD20" s="77" t="s">
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="73"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="AE20" s="78"/>
-      <c r="AF20" s="78"/>
-      <c r="AG20" s="78"/>
-      <c r="AH20" s="78"/>
-      <c r="AI20" s="78"/>
-      <c r="AJ20" s="78"/>
-      <c r="AK20" s="79"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="77"/>
     </row>
     <row r="21" spans="1:37" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="143" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="155" t="s">
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="155"/>
-      <c r="O21" s="128" t="s">
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="P21" s="156"/>
-      <c r="Q21" s="140" t="s">
+      <c r="P21" s="63"/>
+      <c r="Q21" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="R21" s="141"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="142"/>
-      <c r="U21" s="160" t="s">
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="V21" s="152"/>
-      <c r="W21" s="152"/>
-      <c r="X21" s="152"/>
-      <c r="Y21" s="152"/>
-      <c r="Z21" s="152"/>
-      <c r="AA21" s="152"/>
-      <c r="AB21" s="152"/>
-      <c r="AC21" s="152"/>
-      <c r="AD21" s="152"/>
-      <c r="AE21" s="152"/>
-      <c r="AF21" s="152"/>
-      <c r="AG21" s="152"/>
-      <c r="AH21" s="152"/>
-      <c r="AI21" s="152"/>
-      <c r="AJ21" s="152"/>
-      <c r="AK21" s="161"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
+      <c r="AJ21" s="57"/>
+      <c r="AK21" s="58"/>
     </row>
     <row r="22" spans="1:37" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="158"/>
-      <c r="B22" s="140" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="143" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="146"/>
-      <c r="O22" s="140" t="s">
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="160" t="s">
+      <c r="P22" s="55"/>
+      <c r="Q22" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="R22" s="152"/>
-      <c r="S22" s="152"/>
-      <c r="T22" s="152"/>
-      <c r="U22" s="152"/>
-      <c r="V22" s="152"/>
-      <c r="W22" s="152"/>
-      <c r="X22" s="152"/>
-      <c r="Y22" s="152"/>
-      <c r="Z22" s="152"/>
-      <c r="AA22" s="152"/>
-      <c r="AB22" s="152"/>
-      <c r="AC22" s="152"/>
-      <c r="AD22" s="152"/>
-      <c r="AE22" s="152"/>
-      <c r="AF22" s="152"/>
-      <c r="AG22" s="152"/>
-      <c r="AH22" s="152"/>
-      <c r="AI22" s="152"/>
-      <c r="AJ22" s="152"/>
-      <c r="AK22" s="161"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="57"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="58"/>
     </row>
     <row r="23" spans="1:37" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="159"/>
-      <c r="B23" s="140" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="160" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="152"/>
-      <c r="O23" s="152"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="152"/>
-      <c r="R23" s="152"/>
-      <c r="S23" s="152"/>
-      <c r="T23" s="152"/>
-      <c r="U23" s="152"/>
-      <c r="V23" s="152"/>
-      <c r="W23" s="152"/>
-      <c r="X23" s="152"/>
-      <c r="Y23" s="152"/>
-      <c r="Z23" s="152"/>
-      <c r="AA23" s="152"/>
-      <c r="AB23" s="152"/>
-      <c r="AC23" s="152"/>
-      <c r="AD23" s="152"/>
-      <c r="AE23" s="152"/>
-      <c r="AF23" s="152"/>
-      <c r="AG23" s="152"/>
-      <c r="AH23" s="152"/>
-      <c r="AI23" s="152"/>
-      <c r="AJ23" s="152"/>
-      <c r="AK23" s="161"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="57"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="57"/>
+      <c r="AJ23" s="57"/>
+      <c r="AK23" s="58"/>
     </row>
     <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="112" t="s">
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="93" t="s">
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="124"/>
+      <c r="M24" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="93" t="s">
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y24" s="166"/>
+      <c r="Z24" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="95"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="104"/>
+      <c r="AC24" s="107"/>
       <c r="AD24" s="29"/>
       <c r="AE24" s="29"/>
-      <c r="AF24" s="99" t="s">
+      <c r="AF24" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="99"/>
+      <c r="AG24" s="80"/>
+      <c r="AH24" s="80"/>
+      <c r="AI24" s="80"/>
       <c r="AJ24" s="42" t="s">
         <v>28</v>
       </c>
       <c r="AK24" s="30"/>
     </row>
     <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="93"/>
-      <c r="B25" s="74" t="s">
+      <c r="A25" s="103"/>
+      <c r="B25" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="115" t="s">
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="74" t="s">
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
+      <c r="L25" s="127"/>
+      <c r="M25" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="77" t="s">
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="R25" s="78"/>
-      <c r="S25" s="78"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="78"/>
-      <c r="V25" s="78"/>
-      <c r="W25" s="78"/>
-      <c r="X25" s="78"/>
-      <c r="Y25" s="79"/>
-      <c r="Z25" s="74" t="s">
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="AA25" s="75"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="76"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="85"/>
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
-      <c r="AF25" s="78" t="s">
+      <c r="AF25" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="AG25" s="78"/>
-      <c r="AH25" s="78"/>
-      <c r="AI25" s="78"/>
+      <c r="AG25" s="76"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="76"/>
       <c r="AJ25" s="43" t="s">
         <v>28</v>
       </c>
       <c r="AK25" s="19"/>
     </row>
     <row r="26" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="129" t="s">
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="130"/>
-      <c r="P26" s="130"/>
-      <c r="Q26" s="130"/>
-      <c r="R26" s="130"/>
-      <c r="S26" s="130"/>
-      <c r="T26" s="130"/>
-      <c r="U26" s="130"/>
-      <c r="V26" s="130"/>
-      <c r="W26" s="130"/>
-      <c r="X26" s="130"/>
-      <c r="Y26" s="130"/>
-      <c r="Z26" s="130"/>
-      <c r="AA26" s="130"/>
-      <c r="AB26" s="130"/>
-      <c r="AC26" s="130"/>
-      <c r="AD26" s="130"/>
-      <c r="AE26" s="130"/>
-      <c r="AF26" s="130"/>
-      <c r="AG26" s="130"/>
-      <c r="AH26" s="130"/>
-      <c r="AI26" s="130"/>
-      <c r="AJ26" s="130"/>
-      <c r="AK26" s="131"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="96"/>
+      <c r="X26" s="96"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="96"/>
+      <c r="AB26" s="96"/>
+      <c r="AC26" s="96"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="96"/>
+      <c r="AG26" s="96"/>
+      <c r="AH26" s="96"/>
+      <c r="AI26" s="96"/>
+      <c r="AJ26" s="96"/>
+      <c r="AK26" s="97"/>
     </row>
     <row r="27" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="108"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="112"/>
+      <c r="B27" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="145"/>
       <c r="G27" s="26" t="s">
         <v>153</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="132" t="s">
+      <c r="J27" s="98" t="s">
         <v>154</v>
       </c>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
       <c r="Q27" s="27"/>
       <c r="R27" s="28" t="s">
         <v>155</v>
@@ -4014,15 +4017,15 @@
       <c r="S27" s="27"/>
       <c r="T27" s="27"/>
       <c r="U27" s="27"/>
-      <c r="V27" s="132" t="s">
+      <c r="V27" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="W27" s="132"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="132"/>
-      <c r="Z27" s="132"/>
-      <c r="AA27" s="132"/>
-      <c r="AB27" s="132"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
       <c r="AC27" s="27"/>
       <c r="AD27" s="28" t="s">
         <v>157</v>
@@ -4032,288 +4035,288 @@
       <c r="AG27" s="27"/>
       <c r="AH27" s="27"/>
       <c r="AI27" s="27"/>
-      <c r="AJ27" s="132" t="s">
+      <c r="AJ27" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="AK27" s="133"/>
+      <c r="AK27" s="99"/>
     </row>
     <row r="28" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="108"/>
-      <c r="B28" s="66" t="s">
+      <c r="A28" s="112"/>
+      <c r="B28" s="143" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="63" t="s">
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="93"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
-      <c r="S28" s="64" t="s">
+      <c r="S28" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="T28" s="64"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="64"/>
-      <c r="W28" s="64"/>
-      <c r="X28" s="64"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="64"/>
-      <c r="AB28" s="64"/>
-      <c r="AC28" s="64"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="64"/>
-      <c r="AF28" s="64"/>
-      <c r="AG28" s="64"/>
-      <c r="AH28" s="64"/>
-      <c r="AI28" s="64"/>
-      <c r="AJ28" s="64"/>
-      <c r="AK28" s="65"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="93"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="93"/>
+      <c r="AG28" s="93"/>
+      <c r="AH28" s="93"/>
+      <c r="AI28" s="93"/>
+      <c r="AJ28" s="93"/>
+      <c r="AK28" s="94"/>
     </row>
     <row r="29" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="108"/>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="112"/>
+      <c r="B29" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="63" t="s">
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="64"/>
-      <c r="U29" s="64"/>
-      <c r="V29" s="64"/>
-      <c r="W29" s="64"/>
-      <c r="X29" s="64"/>
-      <c r="Y29" s="64"/>
-      <c r="Z29" s="64"/>
-      <c r="AA29" s="64"/>
-      <c r="AB29" s="64"/>
-      <c r="AC29" s="64"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="64"/>
-      <c r="AF29" s="64"/>
-      <c r="AG29" s="64"/>
-      <c r="AH29" s="64"/>
-      <c r="AI29" s="64"/>
-      <c r="AJ29" s="64"/>
-      <c r="AK29" s="65"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="93"/>
+      <c r="N29" s="93"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="93"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="93"/>
+      <c r="AG29" s="93"/>
+      <c r="AH29" s="93"/>
+      <c r="AI29" s="93"/>
+      <c r="AJ29" s="93"/>
+      <c r="AK29" s="94"/>
     </row>
     <row r="30" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="108"/>
-      <c r="B30" s="66" t="s">
+      <c r="A30" s="112"/>
+      <c r="B30" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="63" t="s">
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
       <c r="U30" s="21"/>
-      <c r="V30" s="64" t="s">
+      <c r="V30" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="64"/>
-      <c r="AC30" s="64"/>
-      <c r="AD30" s="64"/>
-      <c r="AE30" s="64"/>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="64"/>
-      <c r="AH30" s="64"/>
-      <c r="AI30" s="64"/>
-      <c r="AJ30" s="64"/>
-      <c r="AK30" s="65"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="93"/>
+      <c r="AG30" s="93"/>
+      <c r="AH30" s="93"/>
+      <c r="AI30" s="93"/>
+      <c r="AJ30" s="93"/>
+      <c r="AK30" s="94"/>
     </row>
     <row r="31" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="108"/>
-      <c r="B31" s="66" t="s">
+      <c r="A31" s="112"/>
+      <c r="B31" s="143" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="63" t="s">
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="64"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="93"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
       <c r="U31" s="21"/>
-      <c r="V31" s="64" t="s">
+      <c r="V31" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="W31" s="64"/>
-      <c r="X31" s="64"/>
-      <c r="Y31" s="64"/>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="64"/>
-      <c r="AB31" s="64"/>
-      <c r="AC31" s="64"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="64"/>
-      <c r="AF31" s="64"/>
-      <c r="AG31" s="64"/>
-      <c r="AH31" s="64"/>
-      <c r="AI31" s="64"/>
-      <c r="AJ31" s="64"/>
-      <c r="AK31" s="65"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="93"/>
+      <c r="AE31" s="93"/>
+      <c r="AF31" s="93"/>
+      <c r="AG31" s="93"/>
+      <c r="AH31" s="93"/>
+      <c r="AI31" s="93"/>
+      <c r="AJ31" s="93"/>
+      <c r="AK31" s="94"/>
     </row>
     <row r="32" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="108"/>
-      <c r="B32" s="66" t="s">
+      <c r="A32" s="112"/>
+      <c r="B32" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="63" t="s">
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
-      <c r="N32" s="64"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
-      <c r="T32" s="64"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
       <c r="U32" s="21"/>
-      <c r="V32" s="64" t="s">
+      <c r="V32" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="W32" s="64"/>
-      <c r="X32" s="64"/>
-      <c r="Y32" s="64"/>
-      <c r="Z32" s="64"/>
-      <c r="AA32" s="64"/>
-      <c r="AB32" s="64"/>
-      <c r="AC32" s="64"/>
-      <c r="AD32" s="64"/>
-      <c r="AE32" s="64"/>
-      <c r="AF32" s="64"/>
-      <c r="AG32" s="64"/>
-      <c r="AH32" s="64"/>
-      <c r="AI32" s="64"/>
-      <c r="AJ32" s="64"/>
-      <c r="AK32" s="65"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="93"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="93"/>
+      <c r="AG32" s="93"/>
+      <c r="AH32" s="93"/>
+      <c r="AI32" s="93"/>
+      <c r="AJ32" s="93"/>
+      <c r="AK32" s="94"/>
     </row>
     <row r="33" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="108"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="112"/>
+      <c r="B33" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="63" t="s">
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
-      <c r="M33" s="64"/>
-      <c r="N33" s="64"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
-      <c r="T33" s="64"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="93"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="93"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
       <c r="U33" s="21"/>
-      <c r="V33" s="64" t="s">
+      <c r="V33" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="W33" s="64"/>
-      <c r="X33" s="64"/>
-      <c r="Y33" s="64"/>
-      <c r="Z33" s="64"/>
-      <c r="AA33" s="64"/>
-      <c r="AB33" s="64"/>
-      <c r="AC33" s="64"/>
-      <c r="AD33" s="64"/>
-      <c r="AE33" s="64"/>
-      <c r="AF33" s="64"/>
-      <c r="AG33" s="64"/>
-      <c r="AH33" s="64"/>
-      <c r="AI33" s="64"/>
-      <c r="AJ33" s="64"/>
-      <c r="AK33" s="65"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="93"/>
+      <c r="AG33" s="93"/>
+      <c r="AH33" s="93"/>
+      <c r="AI33" s="93"/>
+      <c r="AJ33" s="93"/>
+      <c r="AK33" s="94"/>
     </row>
     <row r="34" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="108"/>
-      <c r="B34" s="66" t="s">
+      <c r="A34" s="112"/>
+      <c r="B34" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="145"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21" t="s">
         <v>35</v>
@@ -4337,42 +4340,42 @@
       <c r="Y34" s="21"/>
       <c r="Z34" s="21"/>
       <c r="AA34" s="21"/>
-      <c r="AB34" s="64"/>
-      <c r="AC34" s="64"/>
-      <c r="AD34" s="64"/>
-      <c r="AE34" s="64"/>
-      <c r="AF34" s="64"/>
-      <c r="AG34" s="64"/>
-      <c r="AH34" s="64"/>
-      <c r="AI34" s="64"/>
-      <c r="AJ34" s="64"/>
-      <c r="AK34" s="65"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="93"/>
+      <c r="AF34" s="93"/>
+      <c r="AG34" s="93"/>
+      <c r="AH34" s="93"/>
+      <c r="AI34" s="93"/>
+      <c r="AJ34" s="93"/>
+      <c r="AK34" s="94"/>
     </row>
     <row r="35" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="108"/>
-      <c r="B35" s="66" t="s">
+      <c r="A35" s="112"/>
+      <c r="B35" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="66" t="s">
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="72" t="s">
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="160" t="s">
         <v>151</v>
       </c>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
@@ -4394,100 +4397,100 @@
       <c r="AK35" s="22"/>
     </row>
     <row r="36" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="108"/>
-      <c r="B36" s="66" t="s">
+      <c r="A36" s="112"/>
+      <c r="B36" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="63" t="s">
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="64"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="64"/>
-      <c r="T36" s="64"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93"/>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
       <c r="U36" s="21"/>
-      <c r="V36" s="64" t="s">
+      <c r="V36" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="W36" s="64"/>
-      <c r="X36" s="64"/>
-      <c r="Y36" s="64"/>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="64"/>
-      <c r="AB36" s="64"/>
-      <c r="AC36" s="64"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="64"/>
-      <c r="AF36" s="64"/>
-      <c r="AG36" s="64"/>
-      <c r="AH36" s="64"/>
-      <c r="AI36" s="64"/>
-      <c r="AJ36" s="64"/>
-      <c r="AK36" s="65"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="93"/>
+      <c r="AB36" s="93"/>
+      <c r="AC36" s="93"/>
+      <c r="AD36" s="93"/>
+      <c r="AE36" s="93"/>
+      <c r="AF36" s="93"/>
+      <c r="AG36" s="93"/>
+      <c r="AH36" s="93"/>
+      <c r="AI36" s="93"/>
+      <c r="AJ36" s="93"/>
+      <c r="AK36" s="94"/>
     </row>
     <row r="37" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="108"/>
-      <c r="B37" s="66" t="s">
+      <c r="A37" s="112"/>
+      <c r="B37" s="143" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="64"/>
-      <c r="AC37" s="64"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="64"/>
-      <c r="AH37" s="64"/>
-      <c r="AI37" s="64"/>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="65"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="93"/>
+      <c r="AB37" s="93"/>
+      <c r="AC37" s="93"/>
+      <c r="AD37" s="93"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="93"/>
+      <c r="AG37" s="93"/>
+      <c r="AH37" s="93"/>
+      <c r="AI37" s="93"/>
+      <c r="AJ37" s="93"/>
+      <c r="AK37" s="94"/>
     </row>
     <row r="38" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="108"/>
-      <c r="B38" s="66" t="s">
+      <c r="A38" s="112"/>
+      <c r="B38" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="145"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21" t="s">
         <v>35</v>
@@ -4511,63 +4514,63 @@
       <c r="Y38" s="21"/>
       <c r="Z38" s="21"/>
       <c r="AA38" s="21"/>
-      <c r="AB38" s="64"/>
-      <c r="AC38" s="64"/>
-      <c r="AD38" s="64"/>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="64"/>
-      <c r="AH38" s="64"/>
-      <c r="AI38" s="64"/>
-      <c r="AJ38" s="64"/>
-      <c r="AK38" s="65"/>
+      <c r="AB38" s="93"/>
+      <c r="AC38" s="93"/>
+      <c r="AD38" s="93"/>
+      <c r="AE38" s="93"/>
+      <c r="AF38" s="93"/>
+      <c r="AG38" s="93"/>
+      <c r="AH38" s="93"/>
+      <c r="AI38" s="93"/>
+      <c r="AJ38" s="93"/>
+      <c r="AK38" s="94"/>
     </row>
     <row r="39" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="108"/>
-      <c r="B39" s="69" t="s">
+      <c r="A39" s="112"/>
+      <c r="B39" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="71"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="159"/>
       <c r="G39" s="41" t="s">
         <v>92</v>
       </c>
       <c r="H39" s="23"/>
-      <c r="I39" s="73" t="s">
+      <c r="I39" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
+      <c r="J39" s="161"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="161"/>
+      <c r="M39" s="161"/>
+      <c r="N39" s="161"/>
       <c r="O39" s="23"/>
-      <c r="P39" s="70" t="s">
+      <c r="P39" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="70"/>
-      <c r="S39" s="73" t="s">
+      <c r="Q39" s="158"/>
+      <c r="R39" s="158"/>
+      <c r="S39" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="T39" s="73"/>
+      <c r="T39" s="161"/>
       <c r="U39" s="23"/>
-      <c r="V39" s="70" t="s">
+      <c r="V39" s="158" t="s">
         <v>96</v>
       </c>
-      <c r="W39" s="70"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="70"/>
-      <c r="Z39" s="73" t="s">
+      <c r="W39" s="158"/>
+      <c r="X39" s="158"/>
+      <c r="Y39" s="158"/>
+      <c r="Z39" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="AA39" s="73"/>
-      <c r="AB39" s="73"/>
-      <c r="AC39" s="73"/>
-      <c r="AD39" s="73"/>
-      <c r="AE39" s="73"/>
+      <c r="AA39" s="161"/>
+      <c r="AB39" s="161"/>
+      <c r="AC39" s="161"/>
+      <c r="AD39" s="161"/>
+      <c r="AE39" s="161"/>
       <c r="AF39" s="23"/>
       <c r="AG39" s="23"/>
       <c r="AH39" s="23"/>
@@ -4576,510 +4579,510 @@
       <c r="AK39" s="24"/>
     </row>
     <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="108"/>
-      <c r="B40" s="102" t="s">
+      <c r="A40" s="112"/>
+      <c r="B40" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="103"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="61" t="s">
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="I40" s="61"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61"/>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="61"/>
-      <c r="R40" s="61"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="61"/>
-      <c r="U40" s="61"/>
-      <c r="V40" s="61"/>
-      <c r="W40" s="61"/>
-      <c r="X40" s="61"/>
-      <c r="Y40" s="61"/>
-      <c r="Z40" s="61"/>
-      <c r="AA40" s="61"/>
-      <c r="AB40" s="61"/>
-      <c r="AC40" s="61"/>
-      <c r="AD40" s="61"/>
-      <c r="AE40" s="61"/>
-      <c r="AF40" s="61"/>
-      <c r="AG40" s="61"/>
-      <c r="AH40" s="61"/>
-      <c r="AI40" s="61"/>
-      <c r="AJ40" s="61"/>
-      <c r="AK40" s="62"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="155"/>
+      <c r="O40" s="155"/>
+      <c r="P40" s="155"/>
+      <c r="Q40" s="155"/>
+      <c r="R40" s="155"/>
+      <c r="S40" s="155"/>
+      <c r="T40" s="155"/>
+      <c r="U40" s="155"/>
+      <c r="V40" s="155"/>
+      <c r="W40" s="155"/>
+      <c r="X40" s="155"/>
+      <c r="Y40" s="155"/>
+      <c r="Z40" s="155"/>
+      <c r="AA40" s="155"/>
+      <c r="AB40" s="155"/>
+      <c r="AC40" s="155"/>
+      <c r="AD40" s="155"/>
+      <c r="AE40" s="155"/>
+      <c r="AF40" s="155"/>
+      <c r="AG40" s="155"/>
+      <c r="AH40" s="155"/>
+      <c r="AI40" s="155"/>
+      <c r="AJ40" s="155"/>
+      <c r="AK40" s="156"/>
     </row>
     <row r="41" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="108"/>
-      <c r="B41" s="104" t="s">
+      <c r="A41" s="112"/>
+      <c r="B41" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="106"/>
-      <c r="O41" s="105"/>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="106"/>
-      <c r="R41" s="106"/>
-      <c r="S41" s="106"/>
-      <c r="T41" s="106"/>
-      <c r="U41" s="105"/>
-      <c r="V41" s="105"/>
-      <c r="W41" s="105"/>
-      <c r="X41" s="105"/>
-      <c r="Y41" s="105"/>
-      <c r="Z41" s="105"/>
-      <c r="AA41" s="105"/>
-      <c r="AB41" s="105"/>
-      <c r="AC41" s="105"/>
-      <c r="AD41" s="105"/>
-      <c r="AE41" s="105"/>
-      <c r="AF41" s="105"/>
-      <c r="AG41" s="105"/>
-      <c r="AH41" s="105"/>
-      <c r="AI41" s="105"/>
-      <c r="AJ41" s="105"/>
-      <c r="AK41" s="107"/>
+      <c r="C41" s="137"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="138"/>
+      <c r="N41" s="138"/>
+      <c r="O41" s="137"/>
+      <c r="P41" s="137"/>
+      <c r="Q41" s="138"/>
+      <c r="R41" s="138"/>
+      <c r="S41" s="138"/>
+      <c r="T41" s="138"/>
+      <c r="U41" s="137"/>
+      <c r="V41" s="137"/>
+      <c r="W41" s="137"/>
+      <c r="X41" s="137"/>
+      <c r="Y41" s="137"/>
+      <c r="Z41" s="137"/>
+      <c r="AA41" s="137"/>
+      <c r="AB41" s="137"/>
+      <c r="AC41" s="137"/>
+      <c r="AD41" s="137"/>
+      <c r="AE41" s="137"/>
+      <c r="AF41" s="137"/>
+      <c r="AG41" s="137"/>
+      <c r="AH41" s="137"/>
+      <c r="AI41" s="137"/>
+      <c r="AJ41" s="137"/>
+      <c r="AK41" s="139"/>
     </row>
     <row r="42" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="157" t="s">
+      <c r="A42" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="B42" s="140" t="s">
+      <c r="B42" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="141"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="143" t="s">
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="140" t="s">
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="L42" s="141"/>
-      <c r="M42" s="141"/>
-      <c r="N42" s="142"/>
-      <c r="O42" s="145" t="s">
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="P42" s="156"/>
-      <c r="Q42" s="140" t="s">
+      <c r="P42" s="63"/>
+      <c r="Q42" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="R42" s="141"/>
-      <c r="S42" s="141"/>
-      <c r="T42" s="142"/>
-      <c r="U42" s="160" t="s">
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="56" t="s">
         <v>189</v>
       </c>
-      <c r="V42" s="152"/>
-      <c r="W42" s="152"/>
-      <c r="X42" s="152"/>
-      <c r="Y42" s="152"/>
-      <c r="Z42" s="152"/>
-      <c r="AA42" s="152"/>
-      <c r="AB42" s="152"/>
-      <c r="AC42" s="152"/>
-      <c r="AD42" s="152"/>
-      <c r="AE42" s="152"/>
-      <c r="AF42" s="152"/>
-      <c r="AG42" s="152"/>
-      <c r="AH42" s="152"/>
-      <c r="AI42" s="152"/>
-      <c r="AJ42" s="152"/>
-      <c r="AK42" s="161"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="57"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="57"/>
+      <c r="AE42" s="57"/>
+      <c r="AF42" s="57"/>
+      <c r="AG42" s="57"/>
+      <c r="AH42" s="57"/>
+      <c r="AI42" s="57"/>
+      <c r="AJ42" s="57"/>
+      <c r="AK42" s="58"/>
     </row>
     <row r="43" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="158"/>
-      <c r="B43" s="140" t="s">
+      <c r="A43" s="60"/>
+      <c r="B43" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="141"/>
-      <c r="D43" s="141"/>
-      <c r="E43" s="141"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="143" t="s">
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="140" t="s">
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="L43" s="141"/>
-      <c r="M43" s="141"/>
-      <c r="N43" s="142"/>
-      <c r="O43" s="143" t="s">
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="144"/>
-      <c r="Q43" s="144"/>
-      <c r="R43" s="144"/>
-      <c r="S43" s="144"/>
-      <c r="T43" s="146"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="66"/>
       <c r="U43" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="V43" s="160" t="s">
+      <c r="V43" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="W43" s="152"/>
-      <c r="X43" s="152"/>
-      <c r="Y43" s="152"/>
-      <c r="Z43" s="152"/>
-      <c r="AA43" s="161"/>
-      <c r="AB43" s="140" t="s">
+      <c r="W43" s="57"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="53" t="s">
         <v>196</v>
       </c>
-      <c r="AC43" s="141"/>
-      <c r="AD43" s="141"/>
-      <c r="AE43" s="141"/>
-      <c r="AF43" s="142"/>
-      <c r="AG43" s="144" t="s">
+      <c r="AC43" s="54"/>
+      <c r="AD43" s="54"/>
+      <c r="AE43" s="54"/>
+      <c r="AF43" s="55"/>
+      <c r="AG43" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="AH43" s="144"/>
-      <c r="AI43" s="144"/>
-      <c r="AJ43" s="144"/>
-      <c r="AK43" s="146"/>
+      <c r="AH43" s="65"/>
+      <c r="AI43" s="65"/>
+      <c r="AJ43" s="65"/>
+      <c r="AK43" s="66"/>
     </row>
     <row r="44" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="159"/>
-      <c r="B44" s="140" t="s">
+      <c r="A44" s="61"/>
+      <c r="B44" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="141"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="143" t="s">
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="140" t="s">
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="L44" s="141"/>
-      <c r="M44" s="141"/>
-      <c r="N44" s="142"/>
-      <c r="O44" s="144" t="s">
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="P44" s="144"/>
-      <c r="Q44" s="140" t="s">
+      <c r="P44" s="65"/>
+      <c r="Q44" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="R44" s="141"/>
-      <c r="S44" s="141"/>
-      <c r="T44" s="142"/>
-      <c r="U44" s="160" t="s">
+      <c r="R44" s="54"/>
+      <c r="S44" s="54"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="V44" s="152"/>
-      <c r="W44" s="152"/>
-      <c r="X44" s="152"/>
-      <c r="Y44" s="152"/>
-      <c r="Z44" s="152"/>
-      <c r="AA44" s="152"/>
-      <c r="AB44" s="152"/>
-      <c r="AC44" s="152"/>
-      <c r="AD44" s="152"/>
-      <c r="AE44" s="152"/>
-      <c r="AF44" s="152"/>
-      <c r="AG44" s="152"/>
-      <c r="AH44" s="152"/>
-      <c r="AI44" s="152"/>
-      <c r="AJ44" s="152"/>
-      <c r="AK44" s="161"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="57"/>
+      <c r="AJ44" s="57"/>
+      <c r="AK44" s="58"/>
     </row>
     <row r="45" spans="1:37" ht="198" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="152" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-      <c r="AA45" s="59"/>
-      <c r="AB45" s="59"/>
-      <c r="AC45" s="59"/>
-      <c r="AD45" s="59"/>
-      <c r="AE45" s="59"/>
-      <c r="AF45" s="59"/>
-      <c r="AG45" s="59"/>
-      <c r="AH45" s="59"/>
-      <c r="AI45" s="59"/>
-      <c r="AJ45" s="59"/>
-      <c r="AK45" s="60"/>
+      <c r="C45" s="153"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="153"/>
+      <c r="N45" s="153"/>
+      <c r="O45" s="153"/>
+      <c r="P45" s="153"/>
+      <c r="Q45" s="153"/>
+      <c r="R45" s="153"/>
+      <c r="S45" s="153"/>
+      <c r="T45" s="153"/>
+      <c r="U45" s="153"/>
+      <c r="V45" s="153"/>
+      <c r="W45" s="153"/>
+      <c r="X45" s="153"/>
+      <c r="Y45" s="153"/>
+      <c r="Z45" s="153"/>
+      <c r="AA45" s="153"/>
+      <c r="AB45" s="153"/>
+      <c r="AC45" s="153"/>
+      <c r="AD45" s="153"/>
+      <c r="AE45" s="153"/>
+      <c r="AF45" s="153"/>
+      <c r="AG45" s="153"/>
+      <c r="AH45" s="153"/>
+      <c r="AI45" s="153"/>
+      <c r="AJ45" s="153"/>
+      <c r="AK45" s="154"/>
     </row>
     <row r="46" spans="1:37" ht="71.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="152" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
-      <c r="AA46" s="59"/>
-      <c r="AB46" s="59"/>
-      <c r="AC46" s="59"/>
-      <c r="AD46" s="59"/>
-      <c r="AE46" s="59"/>
-      <c r="AF46" s="59"/>
-      <c r="AG46" s="59"/>
-      <c r="AH46" s="59"/>
-      <c r="AI46" s="59"/>
-      <c r="AJ46" s="59"/>
-      <c r="AK46" s="60"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="153"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="153"/>
+      <c r="N46" s="153"/>
+      <c r="O46" s="153"/>
+      <c r="P46" s="153"/>
+      <c r="Q46" s="153"/>
+      <c r="R46" s="153"/>
+      <c r="S46" s="153"/>
+      <c r="T46" s="153"/>
+      <c r="U46" s="153"/>
+      <c r="V46" s="153"/>
+      <c r="W46" s="153"/>
+      <c r="X46" s="153"/>
+      <c r="Y46" s="153"/>
+      <c r="Z46" s="153"/>
+      <c r="AA46" s="153"/>
+      <c r="AB46" s="153"/>
+      <c r="AC46" s="153"/>
+      <c r="AD46" s="153"/>
+      <c r="AE46" s="153"/>
+      <c r="AF46" s="153"/>
+      <c r="AG46" s="153"/>
+      <c r="AH46" s="153"/>
+      <c r="AI46" s="153"/>
+      <c r="AJ46" s="153"/>
+      <c r="AK46" s="154"/>
     </row>
     <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
+      <c r="N47" s="102"/>
+      <c r="O47" s="102"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="80" t="s">
+      <c r="R47" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
-      <c r="U47" s="81"/>
-      <c r="V47" s="81"/>
-      <c r="W47" s="82"/>
-      <c r="X47" s="96" t="s">
+      <c r="S47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="U47" s="73"/>
+      <c r="V47" s="73"/>
+      <c r="W47" s="74"/>
+      <c r="X47" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="Y47" s="97"/>
-      <c r="Z47" s="97"/>
-      <c r="AA47" s="97"/>
-      <c r="AB47" s="97"/>
-      <c r="AC47" s="97"/>
-      <c r="AD47" s="97"/>
-      <c r="AE47" s="97"/>
-      <c r="AF47" s="97"/>
-      <c r="AG47" s="97"/>
+      <c r="Y47" s="88"/>
+      <c r="Z47" s="88"/>
+      <c r="AA47" s="88"/>
+      <c r="AB47" s="88"/>
+      <c r="AC47" s="88"/>
+      <c r="AD47" s="88"/>
+      <c r="AE47" s="88"/>
+      <c r="AF47" s="88"/>
+      <c r="AG47" s="88"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
       <c r="AK47" s="7"/>
     </row>
     <row r="48" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="90"/>
-      <c r="B48" s="100" t="s">
+      <c r="A48" s="129"/>
+      <c r="B48" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="101"/>
-      <c r="N48" s="101"/>
-      <c r="O48" s="101"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="131"/>
+      <c r="L48" s="131"/>
+      <c r="M48" s="131"/>
+      <c r="N48" s="131"/>
+      <c r="O48" s="131"/>
       <c r="P48" s="44" t="s">
         <v>7</v>
       </c>
       <c r="Q48" s="9"/>
-      <c r="R48" s="93"/>
-      <c r="S48" s="94"/>
-      <c r="T48" s="94"/>
-      <c r="U48" s="94"/>
-      <c r="V48" s="94"/>
-      <c r="W48" s="95"/>
-      <c r="X48" s="98"/>
-      <c r="Y48" s="99"/>
-      <c r="Z48" s="99"/>
-      <c r="AA48" s="99"/>
-      <c r="AB48" s="99"/>
-      <c r="AC48" s="99"/>
-      <c r="AD48" s="99"/>
-      <c r="AE48" s="99"/>
-      <c r="AF48" s="99"/>
-      <c r="AG48" s="99"/>
+      <c r="R48" s="103"/>
+      <c r="S48" s="104"/>
+      <c r="T48" s="104"/>
+      <c r="U48" s="104"/>
+      <c r="V48" s="104"/>
+      <c r="W48" s="107"/>
+      <c r="X48" s="81"/>
+      <c r="Y48" s="80"/>
+      <c r="Z48" s="80"/>
+      <c r="AA48" s="80"/>
+      <c r="AB48" s="80"/>
+      <c r="AC48" s="80"/>
+      <c r="AD48" s="80"/>
+      <c r="AE48" s="80"/>
+      <c r="AF48" s="80"/>
+      <c r="AG48" s="80"/>
       <c r="AH48" s="13"/>
       <c r="AI48" s="13"/>
       <c r="AJ48" s="13"/>
       <c r="AK48" s="14"/>
     </row>
     <row r="49" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="90"/>
-      <c r="B49" s="74" t="s">
+      <c r="A49" s="129"/>
+      <c r="B49" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="76"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="85"/>
       <c r="E49" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50" t="s">
+      <c r="G49" s="132"/>
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="50"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="50"/>
-      <c r="Q49" s="50"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50"/>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="50"/>
-      <c r="Z49" s="50"/>
-      <c r="AA49" s="50"/>
-      <c r="AB49" s="50"/>
-      <c r="AC49" s="50"/>
-      <c r="AD49" s="50"/>
-      <c r="AE49" s="50"/>
-      <c r="AF49" s="50"/>
-      <c r="AG49" s="50"/>
-      <c r="AH49" s="50"/>
-      <c r="AI49" s="50"/>
-      <c r="AJ49" s="50"/>
-      <c r="AK49" s="51"/>
+      <c r="K49" s="132"/>
+      <c r="L49" s="132"/>
+      <c r="M49" s="132"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="132"/>
+      <c r="P49" s="132"/>
+      <c r="Q49" s="132"/>
+      <c r="R49" s="132"/>
+      <c r="S49" s="132"/>
+      <c r="T49" s="132"/>
+      <c r="U49" s="132"/>
+      <c r="V49" s="132"/>
+      <c r="W49" s="132"/>
+      <c r="X49" s="132"/>
+      <c r="Y49" s="132"/>
+      <c r="Z49" s="132"/>
+      <c r="AA49" s="132"/>
+      <c r="AB49" s="132"/>
+      <c r="AC49" s="132"/>
+      <c r="AD49" s="132"/>
+      <c r="AE49" s="132"/>
+      <c r="AF49" s="132"/>
+      <c r="AG49" s="132"/>
+      <c r="AH49" s="132"/>
+      <c r="AI49" s="132"/>
+      <c r="AJ49" s="132"/>
+      <c r="AK49" s="133"/>
     </row>
     <row r="50" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="90"/>
-      <c r="B50" s="74" t="s">
+      <c r="A50" s="129"/>
+      <c r="B50" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="75"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="74" t="s">
+      <c r="C50" s="84"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="75"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="77" t="s">
+      <c r="F50" s="84"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="I50" s="78"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="78"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="78"/>
-      <c r="N50" s="78"/>
-      <c r="O50" s="78"/>
-      <c r="P50" s="78"/>
-      <c r="Q50" s="79"/>
-      <c r="R50" s="74" t="s">
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="77"/>
+      <c r="R50" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="S50" s="75"/>
-      <c r="T50" s="76"/>
-      <c r="U50" s="77" t="s">
+      <c r="S50" s="84"/>
+      <c r="T50" s="85"/>
+      <c r="U50" s="75" t="s">
         <v>169</v>
       </c>
-      <c r="V50" s="78"/>
-      <c r="W50" s="78"/>
-      <c r="X50" s="78"/>
-      <c r="Y50" s="78"/>
-      <c r="Z50" s="78"/>
-      <c r="AA50" s="78"/>
-      <c r="AB50" s="78"/>
-      <c r="AC50" s="78"/>
-      <c r="AD50" s="78"/>
+      <c r="V50" s="76"/>
+      <c r="W50" s="76"/>
+      <c r="X50" s="76"/>
+      <c r="Y50" s="76"/>
+      <c r="Z50" s="76"/>
+      <c r="AA50" s="76"/>
+      <c r="AB50" s="76"/>
+      <c r="AC50" s="76"/>
+      <c r="AD50" s="76"/>
       <c r="AE50" s="10"/>
       <c r="AF50" s="10"/>
       <c r="AG50" s="10"/>
@@ -5089,140 +5092,218 @@
       <c r="AK50" s="11"/>
     </row>
     <row r="51" spans="1:37" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="90"/>
-      <c r="B51" s="80" t="s">
+      <c r="A51" s="129"/>
+      <c r="B51" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="83" t="s">
+      <c r="C51" s="73"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
-      <c r="U51" s="84"/>
-      <c r="V51" s="84"/>
-      <c r="W51" s="84"/>
-      <c r="X51" s="84"/>
-      <c r="Y51" s="84"/>
-      <c r="Z51" s="84"/>
-      <c r="AA51" s="84"/>
-      <c r="AB51" s="84"/>
-      <c r="AC51" s="84"/>
-      <c r="AD51" s="84"/>
-      <c r="AE51" s="84"/>
-      <c r="AF51" s="84"/>
-      <c r="AG51" s="84"/>
-      <c r="AH51" s="84"/>
-      <c r="AI51" s="84"/>
-      <c r="AJ51" s="84"/>
-      <c r="AK51" s="85"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="147"/>
+      <c r="L51" s="147"/>
+      <c r="M51" s="147"/>
+      <c r="N51" s="147"/>
+      <c r="O51" s="147"/>
+      <c r="P51" s="147"/>
+      <c r="Q51" s="147"/>
+      <c r="R51" s="147"/>
+      <c r="S51" s="147"/>
+      <c r="T51" s="147"/>
+      <c r="U51" s="147"/>
+      <c r="V51" s="147"/>
+      <c r="W51" s="147"/>
+      <c r="X51" s="147"/>
+      <c r="Y51" s="147"/>
+      <c r="Z51" s="147"/>
+      <c r="AA51" s="147"/>
+      <c r="AB51" s="147"/>
+      <c r="AC51" s="147"/>
+      <c r="AD51" s="147"/>
+      <c r="AE51" s="147"/>
+      <c r="AF51" s="147"/>
+      <c r="AG51" s="147"/>
+      <c r="AH51" s="147"/>
+      <c r="AI51" s="147"/>
+      <c r="AJ51" s="147"/>
+      <c r="AK51" s="148"/>
     </row>
     <row r="52" spans="1:37" ht="59.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A52" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="87"/>
-      <c r="S52" s="87"/>
-      <c r="T52" s="87"/>
-      <c r="U52" s="87"/>
-      <c r="V52" s="87"/>
-      <c r="W52" s="87"/>
-      <c r="X52" s="87"/>
-      <c r="Y52" s="87"/>
-      <c r="Z52" s="87"/>
-      <c r="AA52" s="87"/>
-      <c r="AB52" s="87"/>
-      <c r="AC52" s="87"/>
-      <c r="AD52" s="87"/>
-      <c r="AE52" s="87"/>
-      <c r="AF52" s="87"/>
-      <c r="AG52" s="87"/>
-      <c r="AH52" s="87"/>
-      <c r="AI52" s="87"/>
-      <c r="AJ52" s="87"/>
-      <c r="AK52" s="88"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="150"/>
+      <c r="K52" s="150"/>
+      <c r="L52" s="150"/>
+      <c r="M52" s="150"/>
+      <c r="N52" s="150"/>
+      <c r="O52" s="150"/>
+      <c r="P52" s="150"/>
+      <c r="Q52" s="150"/>
+      <c r="R52" s="150"/>
+      <c r="S52" s="150"/>
+      <c r="T52" s="150"/>
+      <c r="U52" s="150"/>
+      <c r="V52" s="150"/>
+      <c r="W52" s="150"/>
+      <c r="X52" s="150"/>
+      <c r="Y52" s="150"/>
+      <c r="Z52" s="150"/>
+      <c r="AA52" s="150"/>
+      <c r="AB52" s="150"/>
+      <c r="AC52" s="150"/>
+      <c r="AD52" s="150"/>
+      <c r="AE52" s="150"/>
+      <c r="AF52" s="150"/>
+      <c r="AG52" s="150"/>
+      <c r="AH52" s="150"/>
+      <c r="AI52" s="150"/>
+      <c r="AJ52" s="150"/>
+      <c r="AK52" s="151"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="194">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AA4"/>
-    <mergeCell ref="AB4:AK4"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z5:AK5"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="U44:AK44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="O43:T43"/>
-    <mergeCell ref="V43:AA43"/>
-    <mergeCell ref="AB43:AF43"/>
-    <mergeCell ref="AG43:AK43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="U42:AK42"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:AK21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G23:AK23"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:AK22"/>
-    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="G10:AK10"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="B45:AK45"/>
+    <mergeCell ref="H40:AK40"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="S28:AK28"/>
+    <mergeCell ref="G30:T30"/>
+    <mergeCell ref="V30:AK30"/>
+    <mergeCell ref="G31:T31"/>
+    <mergeCell ref="V31:AK31"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="G37:AK37"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G32:T32"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="M35:R35"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="Z39:AE39"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="AB38:AK38"/>
+    <mergeCell ref="V36:AK36"/>
+    <mergeCell ref="V32:AK32"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:Q50"/>
+    <mergeCell ref="R50:T50"/>
+    <mergeCell ref="U50:AD50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:AK51"/>
+    <mergeCell ref="B52:AK52"/>
+    <mergeCell ref="B46:AK46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:O47"/>
+    <mergeCell ref="R47:W48"/>
+    <mergeCell ref="X47:AG48"/>
+    <mergeCell ref="B48:O48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J49:AK49"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:AK41"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="AB34:AK34"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:AK29"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G36:T36"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="Q25:Y25"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="Z24:AC24"/>
+    <mergeCell ref="Q24:W24"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:AK17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:Y18"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="AD18:AK18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:AK13"/>
+    <mergeCell ref="AB14:AH14"/>
+    <mergeCell ref="AI14:AK14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="P15:V15"/>
+    <mergeCell ref="W15:AC15"/>
+    <mergeCell ref="AD15:AJ15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="G33:T33"/>
+    <mergeCell ref="V33:AK33"/>
+    <mergeCell ref="G26:AK26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="V27:AB27"/>
+    <mergeCell ref="AJ27:AK27"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="R8:T9"/>
+    <mergeCell ref="U8:W9"/>
+    <mergeCell ref="X8:Z9"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="B3:AK3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="AA6:AC6"/>
     <mergeCell ref="B19:AK19"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="G20:Y20"/>
@@ -5247,130 +5328,52 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="AE9:AG9"/>
     <mergeCell ref="AA9:AD9"/>
-    <mergeCell ref="G33:T33"/>
-    <mergeCell ref="V33:AK33"/>
-    <mergeCell ref="G26:AK26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="V27:AB27"/>
-    <mergeCell ref="AJ27:AK27"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="R8:T9"/>
-    <mergeCell ref="U8:W9"/>
-    <mergeCell ref="X8:Z9"/>
-    <mergeCell ref="A2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="B3:AK3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:AK17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:Y18"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="AD18:AK18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:AK13"/>
-    <mergeCell ref="AB14:AH14"/>
-    <mergeCell ref="AI14:AK14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:O15"/>
-    <mergeCell ref="P15:V15"/>
-    <mergeCell ref="W15:AC15"/>
-    <mergeCell ref="AD15:AJ15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Z25:AC25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="Q25:Y25"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="Z24:AC24"/>
-    <mergeCell ref="Q24:Y24"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:O47"/>
-    <mergeCell ref="R47:W48"/>
-    <mergeCell ref="X47:AG48"/>
-    <mergeCell ref="B48:O48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J49:AK49"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:AK41"/>
-    <mergeCell ref="A26:A41"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="AB34:AK34"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:AK29"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="G36:T36"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:Q50"/>
-    <mergeCell ref="R50:T50"/>
-    <mergeCell ref="U50:AD50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:AK51"/>
-    <mergeCell ref="B52:AK52"/>
-    <mergeCell ref="B46:AK46"/>
-    <mergeCell ref="B45:AK45"/>
-    <mergeCell ref="H40:AK40"/>
-    <mergeCell ref="G28:P28"/>
-    <mergeCell ref="S28:AK28"/>
-    <mergeCell ref="G30:T30"/>
-    <mergeCell ref="V30:AK30"/>
-    <mergeCell ref="G31:T31"/>
-    <mergeCell ref="V31:AK31"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="G37:AK37"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="G32:T32"/>
-    <mergeCell ref="G35:L35"/>
-    <mergeCell ref="M35:R35"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="Z39:AE39"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="AB38:AK38"/>
-    <mergeCell ref="V36:AK36"/>
-    <mergeCell ref="V32:AK32"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="G10:AK10"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:AK21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G23:AK23"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:AK22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="U44:AK44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="O43:T43"/>
+    <mergeCell ref="V43:AA43"/>
+    <mergeCell ref="AB43:AF43"/>
+    <mergeCell ref="AG43:AK43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="U42:AK42"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AA4"/>
+    <mergeCell ref="AB4:AK4"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="Z5:AK5"/>
+    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">

--- a/public/consultation_template.xlsx
+++ b/public/consultation_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\satsu\anshin-house-db\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4127AF2A-D3F6-4541-B589-A073406D3AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEC6806-798E-4A86-BBE8-6AD2CB3A9194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="216">
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
@@ -1234,6 +1234,17 @@
   </si>
   <si>
     <t>{{income_injury}}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年代</t>
+    <rPh sb="0" eb="2">
+      <t>ネンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{{age_group}}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1841,7 +1852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1857,34 +1868,463 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1892,426 +2332,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2638,8 +2658,8 @@
   </sheetPr>
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2703,2441 +2723,2445 @@
       <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" ht="28.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6" t="s">
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="5" t="s">
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="6" t="s">
+      <c r="AC2" s="133"/>
+      <c r="AD2" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="5" t="s">
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="133" t="s">
         <v>1</v>
       </c>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="6" t="s">
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="5" t="s">
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" s="5"/>
+      <c r="AK2" s="133"/>
     </row>
     <row r="3" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="136" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="11"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="136"/>
+      <c r="AK3" s="137"/>
     </row>
     <row r="4" spans="1:37" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="13" t="s">
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13" t="s">
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13" t="s">
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="15" t="s">
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="158" t="s">
         <v>211</v>
       </c>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="16"/>
+      <c r="AC4" s="158"/>
+      <c r="AD4" s="158"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="158"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="158"/>
+      <c r="AI4" s="158"/>
+      <c r="AJ4" s="158"/>
+      <c r="AK4" s="159"/>
     </row>
     <row r="5" spans="1:37" ht="37.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="13" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="14" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="13" t="s">
+      <c r="P5" s="58"/>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="58"/>
+      <c r="V5" s="58"/>
+      <c r="W5" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="14" t="s">
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="17"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="58"/>
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="59"/>
     </row>
     <row r="6" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13" t="s">
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13" t="s">
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13" t="s">
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13" t="s">
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13" t="s">
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50"/>
+      <c r="AD6" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="14" t="s">
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="AI6" s="14"/>
-      <c r="AJ6" s="14"/>
-      <c r="AK6" s="17"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="59"/>
     </row>
     <row r="7" spans="1:37" ht="22" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19" t="s">
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="20"/>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="21"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="9"/>
     </row>
     <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="28" t="s">
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="30" t="s">
+      <c r="V8" s="99"/>
+      <c r="W8" s="99"/>
+      <c r="X8" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="32" t="s">
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33" t="s">
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33" t="s">
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33" t="s">
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="AK8" s="34"/>
+      <c r="AK8" s="56"/>
     </row>
     <row r="9" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="36" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="41" t="s">
+      <c r="Q9" s="149"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="100"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="97"/>
+      <c r="AA9" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42" t="s">
+      <c r="AB9" s="57"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-      <c r="AH9" s="42" t="s">
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="43" t="s">
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47" t="s">
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="47"/>
-      <c r="AF10" s="47"/>
-      <c r="AG10" s="47"/>
-      <c r="AH10" s="47"/>
-      <c r="AI10" s="47"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="48"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="53"/>
     </row>
     <row r="11" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="51" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="49" t="s">
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="46"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="55"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="147"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="147"/>
+      <c r="AF11" s="147"/>
+      <c r="AG11" s="147"/>
+      <c r="AH11" s="147"/>
+      <c r="AI11" s="147"/>
+      <c r="AJ11" s="147"/>
+      <c r="AK11" s="148"/>
     </row>
     <row r="12" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="143" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="33" t="s">
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="59" t="s">
+      <c r="F12" s="99"/>
+      <c r="G12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="59" t="s">
+      <c r="I12" s="99"/>
+      <c r="J12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="59" t="s">
+      <c r="L12" s="99"/>
+      <c r="M12" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="60"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62" t="s">
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="Q12" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="63" t="s">
+      <c r="R12" s="99"/>
+      <c r="S12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="63"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="54"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="55"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="W12" s="48"/>
+      <c r="X12" s="142"/>
+      <c r="Y12" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="47"/>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="68"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="124"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="124"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="124"/>
+      <c r="AI13" s="124"/>
+      <c r="AJ13" s="124"/>
+      <c r="AK13" s="125"/>
     </row>
     <row r="14" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="95"/>
+      <c r="B14" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="42" t="s">
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="19" t="s">
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19" t="s">
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
-      <c r="AI14" s="19" t="s">
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+      <c r="AE14" s="51"/>
+      <c r="AF14" s="51"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="51"/>
+      <c r="AI14" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="69"/>
+      <c r="AJ14" s="51"/>
+      <c r="AK14" s="126"/>
     </row>
     <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28" t="s">
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="28" t="s">
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="28" t="s">
+      <c r="Q15" s="99"/>
+      <c r="R15" s="99"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="99"/>
+      <c r="U15" s="99"/>
+      <c r="V15" s="99"/>
+      <c r="W15" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="28" t="s">
+      <c r="X15" s="99"/>
+      <c r="Y15" s="99"/>
+      <c r="Z15" s="99"/>
+      <c r="AA15" s="99"/>
+      <c r="AB15" s="99"/>
+      <c r="AC15" s="99"/>
+      <c r="AD15" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="70"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="99"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="99"/>
+      <c r="AJ15" s="99"/>
+      <c r="AK15" s="25"/>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="71"/>
-      <c r="B16" s="49" t="s">
+      <c r="A16" s="109"/>
+      <c r="B16" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="156" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="127" t="s">
         <v>130</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="47"/>
-      <c r="AC16" s="47"/>
-      <c r="AD16" s="47"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="47"/>
-      <c r="AG16" s="47"/>
-      <c r="AH16" s="47"/>
-      <c r="AI16" s="47"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="48"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="52"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="52"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="53"/>
     </row>
     <row r="17" spans="1:37" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="71"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="109"/>
+      <c r="B17" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="74" t="s">
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="76"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="120"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="120"/>
+      <c r="AB17" s="120"/>
+      <c r="AC17" s="120"/>
+      <c r="AD17" s="120"/>
+      <c r="AE17" s="120"/>
+      <c r="AF17" s="120"/>
+      <c r="AG17" s="120"/>
+      <c r="AH17" s="120"/>
+      <c r="AI17" s="120"/>
+      <c r="AJ17" s="120"/>
+      <c r="AK17" s="121"/>
     </row>
     <row r="18" spans="1:37" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37" t="s">
+      <c r="A18" s="95"/>
+      <c r="B18" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="77" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
-      <c r="W18" s="75"/>
-      <c r="X18" s="75"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="51" t="s">
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="53"/>
-      <c r="AD18" s="49" t="s">
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="50"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="80"/>
+      <c r="AK18" s="81"/>
     </row>
     <row r="19" spans="1:37" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="79"/>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79"/>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="79"/>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="79"/>
-      <c r="AJ19" s="79"/>
-      <c r="AK19" s="80"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="139"/>
+      <c r="AH19" s="139"/>
+      <c r="AI19" s="139"/>
+      <c r="AJ19" s="139"/>
+      <c r="AK19" s="140"/>
     </row>
     <row r="20" spans="1:37" ht="24.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="82" t="s">
+      <c r="B20" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="57" t="s">
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="143" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58"/>
-      <c r="Y20" s="85"/>
-      <c r="Z20" s="26" t="s">
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="144"/>
+      <c r="R20" s="144"/>
+      <c r="S20" s="144"/>
+      <c r="T20" s="144"/>
+      <c r="U20" s="144"/>
+      <c r="V20" s="144"/>
+      <c r="W20" s="144"/>
+      <c r="X20" s="144"/>
+      <c r="Y20" s="145"/>
+      <c r="Z20" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="49" t="s">
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="46"/>
-      <c r="AG20" s="46"/>
-      <c r="AH20" s="46"/>
-      <c r="AI20" s="46"/>
-      <c r="AJ20" s="46"/>
-      <c r="AK20" s="50"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="80"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
+      <c r="AK20" s="81"/>
     </row>
     <row r="21" spans="1:37" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="152" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="141" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="57" t="s">
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="143" t="s">
         <v>173</v>
       </c>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="87" t="s">
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="151" t="s">
         <v>174</v>
       </c>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="32" t="s">
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="82" t="s">
+      <c r="P21" s="56"/>
+      <c r="Q21" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="R21" s="83"/>
-      <c r="S21" s="83"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="88" t="s">
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="142"/>
+      <c r="U21" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="65"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="65"/>
-      <c r="AE21" s="65"/>
-      <c r="AF21" s="65"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="65"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="89"/>
+      <c r="V21" s="156"/>
+      <c r="W21" s="156"/>
+      <c r="X21" s="156"/>
+      <c r="Y21" s="156"/>
+      <c r="Z21" s="156"/>
+      <c r="AA21" s="156"/>
+      <c r="AB21" s="156"/>
+      <c r="AC21" s="156"/>
+      <c r="AD21" s="156"/>
+      <c r="AE21" s="156"/>
+      <c r="AF21" s="156"/>
+      <c r="AG21" s="156"/>
+      <c r="AH21" s="156"/>
+      <c r="AI21" s="156"/>
+      <c r="AJ21" s="156"/>
+      <c r="AK21" s="157"/>
     </row>
     <row r="22" spans="1:37" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="90"/>
-      <c r="B22" s="82" t="s">
+      <c r="A22" s="153"/>
+      <c r="B22" s="141" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="57" t="s">
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="82" t="s">
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="141" t="s">
         <v>182</v>
       </c>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="88" t="s">
+      <c r="P22" s="142"/>
+      <c r="Q22" s="155" t="s">
         <v>181</v>
       </c>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="65"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-      <c r="AA22" s="65"/>
-      <c r="AB22" s="65"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="65"/>
-      <c r="AE22" s="65"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="65"/>
-      <c r="AI22" s="65"/>
-      <c r="AJ22" s="65"/>
-      <c r="AK22" s="89"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="156"/>
+      <c r="W22" s="156"/>
+      <c r="X22" s="156"/>
+      <c r="Y22" s="156"/>
+      <c r="Z22" s="156"/>
+      <c r="AA22" s="156"/>
+      <c r="AB22" s="156"/>
+      <c r="AC22" s="156"/>
+      <c r="AD22" s="156"/>
+      <c r="AE22" s="156"/>
+      <c r="AF22" s="156"/>
+      <c r="AG22" s="156"/>
+      <c r="AH22" s="156"/>
+      <c r="AI22" s="156"/>
+      <c r="AJ22" s="156"/>
+      <c r="AK22" s="157"/>
     </row>
     <row r="23" spans="1:37" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="91"/>
-      <c r="B23" s="82" t="s">
+      <c r="A23" s="154"/>
+      <c r="B23" s="141" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="88" t="s">
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="155" t="s">
         <v>204</v>
       </c>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="65"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="65"/>
-      <c r="AI23" s="65"/>
-      <c r="AJ23" s="65"/>
-      <c r="AK23" s="89"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="156"/>
+      <c r="P23" s="156"/>
+      <c r="Q23" s="156"/>
+      <c r="R23" s="156"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="156"/>
+      <c r="W23" s="156"/>
+      <c r="X23" s="156"/>
+      <c r="Y23" s="156"/>
+      <c r="Z23" s="156"/>
+      <c r="AA23" s="156"/>
+      <c r="AB23" s="156"/>
+      <c r="AC23" s="156"/>
+      <c r="AD23" s="156"/>
+      <c r="AE23" s="156"/>
+      <c r="AF23" s="156"/>
+      <c r="AG23" s="156"/>
+      <c r="AH23" s="156"/>
+      <c r="AI23" s="156"/>
+      <c r="AJ23" s="156"/>
+      <c r="AK23" s="157"/>
     </row>
     <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="92" t="s">
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="37" t="s">
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="49" t="s">
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="46"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="95" t="s">
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="37" t="s">
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="19" t="s">
+      <c r="AA24" s="96"/>
+      <c r="AB24" s="96"/>
+      <c r="AC24" s="97"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="AG24" s="19"/>
-      <c r="AH24" s="19"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="95" t="s">
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="51"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AK24" s="21"/>
+      <c r="AK24" s="9"/>
     </row>
     <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="37"/>
-      <c r="B25" s="51" t="s">
+      <c r="A25" s="95"/>
+      <c r="B25" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="97" t="s">
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="51" t="s">
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="49" t="s">
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="50"/>
-      <c r="Z25" s="51" t="s">
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="80"/>
+      <c r="X25" s="80"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="AA25" s="52"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="46" t="s">
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="78"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="46"/>
-      <c r="AJ25" s="100" t="s">
+      <c r="AG25" s="80"/>
+      <c r="AH25" s="80"/>
+      <c r="AI25" s="80"/>
+      <c r="AJ25" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AK25" s="73"/>
+      <c r="AK25" s="27"/>
     </row>
     <row r="26" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="104" t="s">
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="105"/>
-      <c r="P26" s="105"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
-      <c r="V26" s="105"/>
-      <c r="W26" s="105"/>
-      <c r="X26" s="105"/>
-      <c r="Y26" s="105"/>
-      <c r="Z26" s="105"/>
-      <c r="AA26" s="105"/>
-      <c r="AB26" s="105"/>
-      <c r="AC26" s="105"/>
-      <c r="AD26" s="105"/>
-      <c r="AE26" s="105"/>
-      <c r="AF26" s="105"/>
-      <c r="AG26" s="105"/>
-      <c r="AH26" s="105"/>
-      <c r="AI26" s="105"/>
-      <c r="AJ26" s="105"/>
-      <c r="AK26" s="106"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="129"/>
+      <c r="W26" s="129"/>
+      <c r="X26" s="129"/>
+      <c r="Y26" s="129"/>
+      <c r="Z26" s="129"/>
+      <c r="AA26" s="129"/>
+      <c r="AB26" s="129"/>
+      <c r="AC26" s="129"/>
+      <c r="AD26" s="129"/>
+      <c r="AE26" s="129"/>
+      <c r="AF26" s="129"/>
+      <c r="AG26" s="129"/>
+      <c r="AH26" s="129"/>
+      <c r="AI26" s="129"/>
+      <c r="AJ26" s="129"/>
+      <c r="AK26" s="130"/>
     </row>
     <row r="27" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="71"/>
-      <c r="B27" s="107" t="s">
+      <c r="A27" s="109"/>
+      <c r="B27" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="108"/>
-      <c r="D27" s="108"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110" t="s">
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="H27" s="111"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="112" t="s">
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="111"/>
-      <c r="R27" s="113" t="s">
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="S27" s="111"/>
-      <c r="T27" s="111"/>
-      <c r="U27" s="111"/>
-      <c r="V27" s="112" t="s">
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="W27" s="112"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="112"/>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="111"/>
-      <c r="AD27" s="113" t="s">
+      <c r="W27" s="131"/>
+      <c r="X27" s="131"/>
+      <c r="Y27" s="131"/>
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="131"/>
+      <c r="AB27" s="131"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="AE27" s="111"/>
-      <c r="AF27" s="111"/>
-      <c r="AG27" s="111"/>
-      <c r="AH27" s="111"/>
-      <c r="AI27" s="111"/>
-      <c r="AJ27" s="112" t="s">
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="AK27" s="114"/>
+      <c r="AK27" s="132"/>
     </row>
     <row r="28" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="71"/>
-      <c r="B28" s="107" t="s">
+      <c r="A28" s="109"/>
+      <c r="B28" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="108"/>
-      <c r="D28" s="108"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="115" t="s">
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="116" t="s">
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
-      <c r="V28" s="116"/>
-      <c r="W28" s="116"/>
-      <c r="X28" s="116"/>
-      <c r="Y28" s="116"/>
-      <c r="Z28" s="116"/>
-      <c r="AA28" s="116"/>
-      <c r="AB28" s="116"/>
-      <c r="AC28" s="116"/>
-      <c r="AD28" s="116"/>
-      <c r="AE28" s="116"/>
-      <c r="AF28" s="116"/>
-      <c r="AG28" s="116"/>
-      <c r="AH28" s="116"/>
-      <c r="AI28" s="116"/>
-      <c r="AJ28" s="116"/>
-      <c r="AK28" s="118"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="66"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="67"/>
     </row>
     <row r="29" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="71"/>
-      <c r="B29" s="107" t="s">
+      <c r="A29" s="109"/>
+      <c r="B29" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="108"/>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="115" t="s">
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="116"/>
-      <c r="Q29" s="116"/>
-      <c r="R29" s="116"/>
-      <c r="S29" s="116"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="116"/>
-      <c r="V29" s="116"/>
-      <c r="W29" s="116"/>
-      <c r="X29" s="116"/>
-      <c r="Y29" s="116"/>
-      <c r="Z29" s="116"/>
-      <c r="AA29" s="116"/>
-      <c r="AB29" s="116"/>
-      <c r="AC29" s="116"/>
-      <c r="AD29" s="116"/>
-      <c r="AE29" s="116"/>
-      <c r="AF29" s="116"/>
-      <c r="AG29" s="116"/>
-      <c r="AH29" s="116"/>
-      <c r="AI29" s="116"/>
-      <c r="AJ29" s="116"/>
-      <c r="AK29" s="118"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="66"/>
+      <c r="AC29" s="66"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="67"/>
     </row>
     <row r="30" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="71"/>
-      <c r="B30" s="107" t="s">
+      <c r="A30" s="109"/>
+      <c r="B30" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="115" t="s">
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="116"/>
-      <c r="S30" s="116"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="116" t="s">
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="W30" s="116"/>
-      <c r="X30" s="116"/>
-      <c r="Y30" s="116"/>
-      <c r="Z30" s="116"/>
-      <c r="AA30" s="116"/>
-      <c r="AB30" s="116"/>
-      <c r="AC30" s="116"/>
-      <c r="AD30" s="116"/>
-      <c r="AE30" s="116"/>
-      <c r="AF30" s="116"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="116"/>
-      <c r="AI30" s="116"/>
-      <c r="AJ30" s="116"/>
-      <c r="AK30" s="118"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="67"/>
     </row>
     <row r="31" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="71"/>
-      <c r="B31" s="107" t="s">
+      <c r="A31" s="109"/>
+      <c r="B31" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="115" t="s">
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="116"/>
-      <c r="S31" s="116"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="116" t="s">
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="W31" s="116"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="116"/>
-      <c r="Z31" s="116"/>
-      <c r="AA31" s="116"/>
-      <c r="AB31" s="116"/>
-      <c r="AC31" s="116"/>
-      <c r="AD31" s="116"/>
-      <c r="AE31" s="116"/>
-      <c r="AF31" s="116"/>
-      <c r="AG31" s="116"/>
-      <c r="AH31" s="116"/>
-      <c r="AI31" s="116"/>
-      <c r="AJ31" s="116"/>
-      <c r="AK31" s="118"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="67"/>
     </row>
     <row r="32" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="71"/>
-      <c r="B32" s="107" t="s">
+      <c r="A32" s="109"/>
+      <c r="B32" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="115" t="s">
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="116" t="s">
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="116"/>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="116"/>
-      <c r="AD32" s="116"/>
-      <c r="AE32" s="116"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="116"/>
-      <c r="AJ32" s="116"/>
-      <c r="AK32" s="118"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="67"/>
     </row>
     <row r="33" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="71"/>
-      <c r="B33" s="107" t="s">
+      <c r="A33" s="109"/>
+      <c r="B33" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="115" t="s">
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="116" t="s">
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="W33" s="116"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="116"/>
-      <c r="AB33" s="116"/>
-      <c r="AC33" s="116"/>
-      <c r="AD33" s="116"/>
-      <c r="AE33" s="116"/>
-      <c r="AF33" s="116"/>
-      <c r="AG33" s="116"/>
-      <c r="AH33" s="116"/>
-      <c r="AI33" s="116"/>
-      <c r="AJ33" s="116"/>
-      <c r="AK33" s="118"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="67"/>
     </row>
     <row r="34" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="71"/>
-      <c r="B34" s="107" t="s">
+      <c r="A34" s="109"/>
+      <c r="B34" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117" t="s">
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="117"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="117"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="117"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="117"/>
-      <c r="W34" s="117"/>
-      <c r="X34" s="117"/>
-      <c r="Y34" s="117"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="116"/>
-      <c r="AC34" s="116"/>
-      <c r="AD34" s="116"/>
-      <c r="AE34" s="116"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="116"/>
-      <c r="AH34" s="116"/>
-      <c r="AI34" s="116"/>
-      <c r="AJ34" s="116"/>
-      <c r="AK34" s="118"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="67"/>
     </row>
     <row r="35" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="71"/>
-      <c r="B35" s="107" t="s">
+      <c r="A35" s="109"/>
+      <c r="B35" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="107" t="s">
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="108"/>
-      <c r="M35" s="119" t="s">
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="117"/>
-      <c r="U35" s="117"/>
-      <c r="V35" s="117"/>
-      <c r="W35" s="117"/>
-      <c r="X35" s="117"/>
-      <c r="Y35" s="117"/>
-      <c r="Z35" s="117"/>
-      <c r="AA35" s="117"/>
-      <c r="AB35" s="117"/>
-      <c r="AC35" s="117"/>
-      <c r="AD35" s="117"/>
-      <c r="AE35" s="117"/>
-      <c r="AF35" s="117"/>
-      <c r="AG35" s="117"/>
-      <c r="AH35" s="117"/>
-      <c r="AI35" s="117"/>
-      <c r="AJ35" s="117"/>
-      <c r="AK35" s="120"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="35"/>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="36"/>
     </row>
     <row r="36" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="71"/>
-      <c r="B36" s="107" t="s">
+      <c r="A36" s="109"/>
+      <c r="B36" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="115" t="s">
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="117"/>
-      <c r="V36" s="116" t="s">
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="W36" s="116"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="116"/>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="116"/>
-      <c r="AB36" s="116"/>
-      <c r="AC36" s="116"/>
-      <c r="AD36" s="116"/>
-      <c r="AE36" s="116"/>
-      <c r="AF36" s="116"/>
-      <c r="AG36" s="116"/>
-      <c r="AH36" s="116"/>
-      <c r="AI36" s="116"/>
-      <c r="AJ36" s="116"/>
-      <c r="AK36" s="118"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="67"/>
     </row>
     <row r="37" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="71"/>
-      <c r="B37" s="107" t="s">
+      <c r="A37" s="109"/>
+      <c r="B37" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="116"/>
-      <c r="R37" s="116"/>
-      <c r="S37" s="116"/>
-      <c r="T37" s="116"/>
-      <c r="U37" s="116"/>
-      <c r="V37" s="116"/>
-      <c r="W37" s="116"/>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="116"/>
-      <c r="Z37" s="116"/>
-      <c r="AA37" s="116"/>
-      <c r="AB37" s="116"/>
-      <c r="AC37" s="116"/>
-      <c r="AD37" s="116"/>
-      <c r="AE37" s="116"/>
-      <c r="AF37" s="116"/>
-      <c r="AG37" s="116"/>
-      <c r="AH37" s="116"/>
-      <c r="AI37" s="116"/>
-      <c r="AJ37" s="116"/>
-      <c r="AK37" s="118"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="66"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="66"/>
+      <c r="AK37" s="67"/>
     </row>
     <row r="38" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="71"/>
-      <c r="B38" s="107" t="s">
+      <c r="A38" s="109"/>
+      <c r="B38" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117" t="s">
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="117"/>
-      <c r="Q38" s="117"/>
-      <c r="R38" s="117"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="117"/>
-      <c r="W38" s="117"/>
-      <c r="X38" s="117"/>
-      <c r="Y38" s="117"/>
-      <c r="Z38" s="117"/>
-      <c r="AA38" s="117"/>
-      <c r="AB38" s="116"/>
-      <c r="AC38" s="116"/>
-      <c r="AD38" s="116"/>
-      <c r="AE38" s="116"/>
-      <c r="AF38" s="116"/>
-      <c r="AG38" s="116"/>
-      <c r="AH38" s="116"/>
-      <c r="AI38" s="116"/>
-      <c r="AJ38" s="116"/>
-      <c r="AK38" s="118"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="67"/>
     </row>
     <row r="39" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="71"/>
-      <c r="B39" s="121" t="s">
+      <c r="A39" s="109"/>
+      <c r="B39" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="122"/>
-      <c r="D39" s="122"/>
-      <c r="E39" s="122"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="124" t="s">
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="H39" s="125"/>
-      <c r="I39" s="126" t="s">
+      <c r="H39" s="38"/>
+      <c r="I39" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="126"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="126"/>
-      <c r="M39" s="126"/>
-      <c r="N39" s="126"/>
-      <c r="O39" s="125"/>
-      <c r="P39" s="122" t="s">
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="Q39" s="122"/>
-      <c r="R39" s="122"/>
-      <c r="S39" s="126" t="s">
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="T39" s="126"/>
-      <c r="U39" s="125"/>
-      <c r="V39" s="122" t="s">
+      <c r="T39" s="75"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="W39" s="122"/>
-      <c r="X39" s="122"/>
-      <c r="Y39" s="122"/>
-      <c r="Z39" s="126" t="s">
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+      <c r="Y39" s="72"/>
+      <c r="Z39" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="AA39" s="126"/>
-      <c r="AB39" s="126"/>
-      <c r="AC39" s="126"/>
-      <c r="AD39" s="126"/>
-      <c r="AE39" s="126"/>
-      <c r="AF39" s="125"/>
-      <c r="AG39" s="125"/>
-      <c r="AH39" s="125"/>
-      <c r="AI39" s="125"/>
-      <c r="AJ39" s="125"/>
-      <c r="AK39" s="127"/>
+      <c r="AA39" s="75"/>
+      <c r="AB39" s="75"/>
+      <c r="AC39" s="75"/>
+      <c r="AD39" s="75"/>
+      <c r="AE39" s="75"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
+      <c r="AI39" s="38"/>
+      <c r="AJ39" s="38"/>
+      <c r="AK39" s="39"/>
     </row>
     <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="71"/>
-      <c r="B40" s="128" t="s">
+      <c r="A40" s="109"/>
+      <c r="B40" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="130" t="s">
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="I40" s="130"/>
-      <c r="J40" s="130"/>
-      <c r="K40" s="130"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="130"/>
-      <c r="N40" s="130"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="130"/>
-      <c r="Q40" s="130"/>
-      <c r="R40" s="130"/>
-      <c r="S40" s="130"/>
-      <c r="T40" s="130"/>
-      <c r="U40" s="130"/>
-      <c r="V40" s="130"/>
-      <c r="W40" s="130"/>
-      <c r="X40" s="130"/>
-      <c r="Y40" s="130"/>
-      <c r="Z40" s="130"/>
-      <c r="AA40" s="130"/>
-      <c r="AB40" s="130"/>
-      <c r="AC40" s="130"/>
-      <c r="AD40" s="130"/>
-      <c r="AE40" s="130"/>
-      <c r="AF40" s="130"/>
-      <c r="AG40" s="130"/>
-      <c r="AH40" s="130"/>
-      <c r="AI40" s="130"/>
-      <c r="AJ40" s="130"/>
-      <c r="AK40" s="131"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="63"/>
+      <c r="AC40" s="63"/>
+      <c r="AD40" s="63"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63"/>
+      <c r="AK40" s="64"/>
     </row>
     <row r="41" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="71"/>
-      <c r="B41" s="132" t="s">
+      <c r="A41" s="109"/>
+      <c r="B41" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
-      <c r="N41" s="134"/>
-      <c r="O41" s="133"/>
-      <c r="P41" s="133"/>
-      <c r="Q41" s="134"/>
-      <c r="R41" s="134"/>
-      <c r="S41" s="134"/>
-      <c r="T41" s="134"/>
-      <c r="U41" s="133"/>
-      <c r="V41" s="133"/>
-      <c r="W41" s="133"/>
-      <c r="X41" s="133"/>
-      <c r="Y41" s="133"/>
-      <c r="Z41" s="133"/>
-      <c r="AA41" s="133"/>
-      <c r="AB41" s="133"/>
-      <c r="AC41" s="133"/>
-      <c r="AD41" s="133"/>
-      <c r="AE41" s="133"/>
-      <c r="AF41" s="133"/>
-      <c r="AG41" s="133"/>
-      <c r="AH41" s="133"/>
-      <c r="AI41" s="133"/>
-      <c r="AJ41" s="133"/>
-      <c r="AK41" s="135"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="106"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="106"/>
+      <c r="V41" s="106"/>
+      <c r="W41" s="106"/>
+      <c r="X41" s="106"/>
+      <c r="Y41" s="106"/>
+      <c r="Z41" s="106"/>
+      <c r="AA41" s="106"/>
+      <c r="AB41" s="106"/>
+      <c r="AC41" s="106"/>
+      <c r="AD41" s="106"/>
+      <c r="AE41" s="106"/>
+      <c r="AF41" s="106"/>
+      <c r="AG41" s="106"/>
+      <c r="AH41" s="106"/>
+      <c r="AI41" s="106"/>
+      <c r="AJ41" s="106"/>
+      <c r="AK41" s="108"/>
     </row>
     <row r="42" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="86" t="s">
+      <c r="A42" s="152" t="s">
         <v>183</v>
       </c>
-      <c r="B42" s="82" t="s">
+      <c r="B42" s="141" t="s">
         <v>184</v>
       </c>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="57" t="s">
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="82" t="s">
+      <c r="H42" s="144"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="141" t="s">
         <v>186</v>
       </c>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="33" t="s">
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="142"/>
+      <c r="O42" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="82" t="s">
+      <c r="P42" s="56"/>
+      <c r="Q42" s="141" t="s">
         <v>188</v>
       </c>
-      <c r="R42" s="83"/>
-      <c r="S42" s="83"/>
-      <c r="T42" s="84"/>
-      <c r="U42" s="88" t="s">
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="142"/>
+      <c r="U42" s="155" t="s">
         <v>189</v>
       </c>
-      <c r="V42" s="65"/>
-      <c r="W42" s="65"/>
-      <c r="X42" s="65"/>
-      <c r="Y42" s="65"/>
-      <c r="Z42" s="65"/>
-      <c r="AA42" s="65"/>
-      <c r="AB42" s="65"/>
-      <c r="AC42" s="65"/>
-      <c r="AD42" s="65"/>
-      <c r="AE42" s="65"/>
-      <c r="AF42" s="65"/>
-      <c r="AG42" s="65"/>
-      <c r="AH42" s="65"/>
-      <c r="AI42" s="65"/>
-      <c r="AJ42" s="65"/>
-      <c r="AK42" s="89"/>
+      <c r="V42" s="156"/>
+      <c r="W42" s="156"/>
+      <c r="X42" s="156"/>
+      <c r="Y42" s="156"/>
+      <c r="Z42" s="156"/>
+      <c r="AA42" s="156"/>
+      <c r="AB42" s="156"/>
+      <c r="AC42" s="156"/>
+      <c r="AD42" s="156"/>
+      <c r="AE42" s="156"/>
+      <c r="AF42" s="156"/>
+      <c r="AG42" s="156"/>
+      <c r="AH42" s="156"/>
+      <c r="AI42" s="156"/>
+      <c r="AJ42" s="156"/>
+      <c r="AK42" s="157"/>
     </row>
     <row r="43" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="90"/>
-      <c r="B43" s="82" t="s">
+      <c r="A43" s="153"/>
+      <c r="B43" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="57" t="s">
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="143" t="s">
         <v>191</v>
       </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="82" t="s">
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="57" t="s">
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="142"/>
+      <c r="O43" s="143" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="85"/>
-      <c r="U43" s="81" t="s">
+      <c r="P43" s="144"/>
+      <c r="Q43" s="144"/>
+      <c r="R43" s="144"/>
+      <c r="S43" s="144"/>
+      <c r="T43" s="145"/>
+      <c r="U43" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="V43" s="88" t="s">
+      <c r="V43" s="155" t="s">
         <v>195</v>
       </c>
-      <c r="W43" s="65"/>
-      <c r="X43" s="65"/>
-      <c r="Y43" s="65"/>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="89"/>
-      <c r="AB43" s="82" t="s">
+      <c r="W43" s="156"/>
+      <c r="X43" s="156"/>
+      <c r="Y43" s="156"/>
+      <c r="Z43" s="156"/>
+      <c r="AA43" s="157"/>
+      <c r="AB43" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="AC43" s="83"/>
-      <c r="AD43" s="83"/>
-      <c r="AE43" s="83"/>
-      <c r="AF43" s="84"/>
-      <c r="AG43" s="58" t="s">
+      <c r="AC43" s="48"/>
+      <c r="AD43" s="48"/>
+      <c r="AE43" s="48"/>
+      <c r="AF43" s="142"/>
+      <c r="AG43" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="AH43" s="58"/>
-      <c r="AI43" s="58"/>
-      <c r="AJ43" s="58"/>
-      <c r="AK43" s="85"/>
+      <c r="AH43" s="144"/>
+      <c r="AI43" s="144"/>
+      <c r="AJ43" s="144"/>
+      <c r="AK43" s="145"/>
     </row>
     <row r="44" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="91"/>
-      <c r="B44" s="82" t="s">
+      <c r="A44" s="154"/>
+      <c r="B44" s="141" t="s">
         <v>198</v>
       </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="57" t="s">
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="143" t="s">
         <v>199</v>
       </c>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="82" t="s">
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="58" t="s">
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="142"/>
+      <c r="O44" s="144" t="s">
         <v>201</v>
       </c>
-      <c r="P44" s="58"/>
-      <c r="Q44" s="82" t="s">
+      <c r="P44" s="144"/>
+      <c r="Q44" s="141" t="s">
         <v>202</v>
       </c>
-      <c r="R44" s="83"/>
-      <c r="S44" s="83"/>
-      <c r="T44" s="84"/>
-      <c r="U44" s="88" t="s">
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="142"/>
+      <c r="U44" s="155" t="s">
         <v>203</v>
       </c>
-      <c r="V44" s="65"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="65"/>
-      <c r="AC44" s="65"/>
-      <c r="AD44" s="65"/>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="65"/>
-      <c r="AG44" s="65"/>
-      <c r="AH44" s="65"/>
-      <c r="AI44" s="65"/>
-      <c r="AJ44" s="65"/>
-      <c r="AK44" s="89"/>
+      <c r="V44" s="156"/>
+      <c r="W44" s="156"/>
+      <c r="X44" s="156"/>
+      <c r="Y44" s="156"/>
+      <c r="Z44" s="156"/>
+      <c r="AA44" s="156"/>
+      <c r="AB44" s="156"/>
+      <c r="AC44" s="156"/>
+      <c r="AD44" s="156"/>
+      <c r="AE44" s="156"/>
+      <c r="AF44" s="156"/>
+      <c r="AG44" s="156"/>
+      <c r="AH44" s="156"/>
+      <c r="AI44" s="156"/>
+      <c r="AJ44" s="156"/>
+      <c r="AK44" s="157"/>
     </row>
     <row r="45" spans="1:37" ht="198" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="136" t="s">
+      <c r="B45" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="137"/>
-      <c r="L45" s="137"/>
-      <c r="M45" s="137"/>
-      <c r="N45" s="137"/>
-      <c r="O45" s="137"/>
-      <c r="P45" s="137"/>
-      <c r="Q45" s="137"/>
-      <c r="R45" s="137"/>
-      <c r="S45" s="137"/>
-      <c r="T45" s="137"/>
-      <c r="U45" s="137"/>
-      <c r="V45" s="137"/>
-      <c r="W45" s="137"/>
-      <c r="X45" s="137"/>
-      <c r="Y45" s="137"/>
-      <c r="Z45" s="137"/>
-      <c r="AA45" s="137"/>
-      <c r="AB45" s="137"/>
-      <c r="AC45" s="137"/>
-      <c r="AD45" s="137"/>
-      <c r="AE45" s="137"/>
-      <c r="AF45" s="137"/>
-      <c r="AG45" s="137"/>
-      <c r="AH45" s="137"/>
-      <c r="AI45" s="137"/>
-      <c r="AJ45" s="137"/>
-      <c r="AK45" s="138"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="61"/>
+      <c r="U45" s="61"/>
+      <c r="V45" s="61"/>
+      <c r="W45" s="61"/>
+      <c r="X45" s="61"/>
+      <c r="Y45" s="61"/>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="61"/>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="62"/>
     </row>
     <row r="46" spans="1:37" ht="71.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="136" t="s">
+      <c r="B46" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="137"/>
-      <c r="L46" s="137"/>
-      <c r="M46" s="137"/>
-      <c r="N46" s="137"/>
-      <c r="O46" s="137"/>
-      <c r="P46" s="137"/>
-      <c r="Q46" s="137"/>
-      <c r="R46" s="137"/>
-      <c r="S46" s="137"/>
-      <c r="T46" s="137"/>
-      <c r="U46" s="137"/>
-      <c r="V46" s="137"/>
-      <c r="W46" s="137"/>
-      <c r="X46" s="137"/>
-      <c r="Y46" s="137"/>
-      <c r="Z46" s="137"/>
-      <c r="AA46" s="137"/>
-      <c r="AB46" s="137"/>
-      <c r="AC46" s="137"/>
-      <c r="AD46" s="137"/>
-      <c r="AE46" s="137"/>
-      <c r="AF46" s="137"/>
-      <c r="AG46" s="137"/>
-      <c r="AH46" s="137"/>
-      <c r="AI46" s="137"/>
-      <c r="AJ46" s="137"/>
-      <c r="AK46" s="138"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="61"/>
+      <c r="AC46" s="61"/>
+      <c r="AD46" s="61"/>
+      <c r="AE46" s="61"/>
+      <c r="AF46" s="61"/>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="61"/>
+      <c r="AI46" s="61"/>
+      <c r="AJ46" s="61"/>
+      <c r="AK46" s="62"/>
     </row>
     <row r="47" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="139" t="s">
+      <c r="A47" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="26" t="s">
+      <c r="B47" s="93"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="28" t="s">
+      <c r="S47" s="83"/>
+      <c r="T47" s="83"/>
+      <c r="U47" s="83"/>
+      <c r="V47" s="83"/>
+      <c r="W47" s="84"/>
+      <c r="X47" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="61"/>
-      <c r="AI47" s="61"/>
-      <c r="AJ47" s="61"/>
-      <c r="AK47" s="140"/>
+      <c r="Y47" s="99"/>
+      <c r="Z47" s="99"/>
+      <c r="AA47" s="99"/>
+      <c r="AB47" s="99"/>
+      <c r="AC47" s="99"/>
+      <c r="AD47" s="99"/>
+      <c r="AE47" s="99"/>
+      <c r="AF47" s="99"/>
+      <c r="AG47" s="99"/>
+      <c r="AH47" s="22"/>
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="40"/>
     </row>
     <row r="48" spans="1:37" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="141"/>
-      <c r="B48" s="142" t="s">
+      <c r="A48" s="92"/>
+      <c r="B48" s="101" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="143" t="s">
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="102"/>
+      <c r="P48" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="Q48" s="144"/>
-      <c r="R48" s="37"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38"/>
-      <c r="V48" s="38"/>
-      <c r="W48" s="40"/>
-      <c r="X48" s="39"/>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="19"/>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="19"/>
-      <c r="AE48" s="19"/>
-      <c r="AF48" s="19"/>
-      <c r="AG48" s="19"/>
-      <c r="AH48" s="145"/>
-      <c r="AI48" s="145"/>
-      <c r="AJ48" s="145"/>
-      <c r="AK48" s="146"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="95"/>
+      <c r="S48" s="96"/>
+      <c r="T48" s="96"/>
+      <c r="U48" s="96"/>
+      <c r="V48" s="96"/>
+      <c r="W48" s="97"/>
+      <c r="X48" s="100"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="43"/>
+      <c r="AI48" s="43"/>
+      <c r="AJ48" s="43"/>
+      <c r="AK48" s="44"/>
     </row>
     <row r="49" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="141"/>
-      <c r="B49" s="51" t="s">
+      <c r="A49" s="92"/>
+      <c r="B49" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="45" t="s">
+      <c r="C49" s="77"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47" t="s">
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="47"/>
-      <c r="Y49" s="47"/>
-      <c r="Z49" s="47"/>
-      <c r="AA49" s="47"/>
-      <c r="AB49" s="47"/>
-      <c r="AC49" s="47"/>
-      <c r="AD49" s="47"/>
-      <c r="AE49" s="47"/>
-      <c r="AF49" s="47"/>
-      <c r="AG49" s="47"/>
-      <c r="AH49" s="47"/>
-      <c r="AI49" s="47"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="48"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="52"/>
+      <c r="O49" s="52"/>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="52"/>
+      <c r="U49" s="52"/>
+      <c r="V49" s="52"/>
+      <c r="W49" s="52"/>
+      <c r="X49" s="52"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="52"/>
+      <c r="AC49" s="52"/>
+      <c r="AD49" s="52"/>
+      <c r="AE49" s="52"/>
+      <c r="AF49" s="52"/>
+      <c r="AG49" s="52"/>
+      <c r="AH49" s="52"/>
+      <c r="AI49" s="52"/>
+      <c r="AJ49" s="52"/>
+      <c r="AK49" s="53"/>
     </row>
     <row r="50" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="141"/>
-      <c r="B50" s="51" t="s">
+      <c r="A50" s="92"/>
+      <c r="B50" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="51" t="s">
+      <c r="C50" s="77"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="49" t="s">
+      <c r="F50" s="77"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="46"/>
-      <c r="N50" s="46"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="46"/>
-      <c r="Q50" s="50"/>
-      <c r="R50" s="51" t="s">
+      <c r="I50" s="80"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="81"/>
+      <c r="R50" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="S50" s="52"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="49" t="s">
+      <c r="S50" s="77"/>
+      <c r="T50" s="78"/>
+      <c r="U50" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="V50" s="46"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="46"/>
-      <c r="AA50" s="46"/>
-      <c r="AB50" s="46"/>
-      <c r="AC50" s="46"/>
-      <c r="AD50" s="46"/>
-      <c r="AE50" s="147"/>
-      <c r="AF50" s="147"/>
-      <c r="AG50" s="147"/>
-      <c r="AH50" s="147"/>
-      <c r="AI50" s="147"/>
-      <c r="AJ50" s="147"/>
-      <c r="AK50" s="148"/>
+      <c r="V50" s="80"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="80"/>
+      <c r="AA50" s="80"/>
+      <c r="AB50" s="80"/>
+      <c r="AC50" s="80"/>
+      <c r="AD50" s="80"/>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="17"/>
+      <c r="AG50" s="17"/>
+      <c r="AH50" s="17"/>
+      <c r="AI50" s="17"/>
+      <c r="AJ50" s="17"/>
+      <c r="AK50" s="18"/>
     </row>
     <row r="51" spans="1:37" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="141"/>
-      <c r="B51" s="26" t="s">
+      <c r="A51" s="92"/>
+      <c r="B51" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="149" t="s">
+      <c r="C51" s="83"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="150"/>
-      <c r="G51" s="150"/>
-      <c r="H51" s="150"/>
-      <c r="I51" s="150"/>
-      <c r="J51" s="150"/>
-      <c r="K51" s="150"/>
-      <c r="L51" s="150"/>
-      <c r="M51" s="150"/>
-      <c r="N51" s="150"/>
-      <c r="O51" s="150"/>
-      <c r="P51" s="150"/>
-      <c r="Q51" s="150"/>
-      <c r="R51" s="150"/>
-      <c r="S51" s="150"/>
-      <c r="T51" s="150"/>
-      <c r="U51" s="150"/>
-      <c r="V51" s="150"/>
-      <c r="W51" s="150"/>
-      <c r="X51" s="150"/>
-      <c r="Y51" s="150"/>
-      <c r="Z51" s="150"/>
-      <c r="AA51" s="150"/>
-      <c r="AB51" s="150"/>
-      <c r="AC51" s="150"/>
-      <c r="AD51" s="150"/>
-      <c r="AE51" s="150"/>
-      <c r="AF51" s="150"/>
-      <c r="AG51" s="150"/>
-      <c r="AH51" s="150"/>
-      <c r="AI51" s="150"/>
-      <c r="AJ51" s="150"/>
-      <c r="AK51" s="151"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="86"/>
+      <c r="L51" s="86"/>
+      <c r="M51" s="86"/>
+      <c r="N51" s="86"/>
+      <c r="O51" s="86"/>
+      <c r="P51" s="86"/>
+      <c r="Q51" s="86"/>
+      <c r="R51" s="86"/>
+      <c r="S51" s="86"/>
+      <c r="T51" s="86"/>
+      <c r="U51" s="86"/>
+      <c r="V51" s="86"/>
+      <c r="W51" s="86"/>
+      <c r="X51" s="86"/>
+      <c r="Y51" s="86"/>
+      <c r="Z51" s="86"/>
+      <c r="AA51" s="86"/>
+      <c r="AB51" s="86"/>
+      <c r="AC51" s="86"/>
+      <c r="AD51" s="86"/>
+      <c r="AE51" s="86"/>
+      <c r="AF51" s="86"/>
+      <c r="AG51" s="86"/>
+      <c r="AH51" s="86"/>
+      <c r="AI51" s="86"/>
+      <c r="AJ51" s="86"/>
+      <c r="AK51" s="87"/>
     </row>
     <row r="52" spans="1:37" ht="59.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="152" t="s">
+      <c r="A52" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B52" s="153" t="s">
+      <c r="B52" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="154"/>
-      <c r="K52" s="154"/>
-      <c r="L52" s="154"/>
-      <c r="M52" s="154"/>
-      <c r="N52" s="154"/>
-      <c r="O52" s="154"/>
-      <c r="P52" s="154"/>
-      <c r="Q52" s="154"/>
-      <c r="R52" s="154"/>
-      <c r="S52" s="154"/>
-      <c r="T52" s="154"/>
-      <c r="U52" s="154"/>
-      <c r="V52" s="154"/>
-      <c r="W52" s="154"/>
-      <c r="X52" s="154"/>
-      <c r="Y52" s="154"/>
-      <c r="Z52" s="154"/>
-      <c r="AA52" s="154"/>
-      <c r="AB52" s="154"/>
-      <c r="AC52" s="154"/>
-      <c r="AD52" s="154"/>
-      <c r="AE52" s="154"/>
-      <c r="AF52" s="154"/>
-      <c r="AG52" s="154"/>
-      <c r="AH52" s="154"/>
-      <c r="AI52" s="154"/>
-      <c r="AJ52" s="154"/>
-      <c r="AK52" s="155"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="89"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="89"/>
+      <c r="S52" s="89"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="89"/>
+      <c r="V52" s="89"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="89"/>
+      <c r="Y52" s="89"/>
+      <c r="Z52" s="89"/>
+      <c r="AA52" s="89"/>
+      <c r="AB52" s="89"/>
+      <c r="AC52" s="89"/>
+      <c r="AD52" s="89"/>
+      <c r="AE52" s="89"/>
+      <c r="AF52" s="89"/>
+      <c r="AG52" s="89"/>
+      <c r="AH52" s="89"/>
+      <c r="AI52" s="89"/>
+      <c r="AJ52" s="89"/>
+      <c r="AK52" s="90"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="194">
+  <mergeCells count="195">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:L4"/>
@@ -5203,7 +5227,6 @@
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="V12:AK12"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="AE9:AG9"/>
@@ -5320,6 +5343,8 @@
     <mergeCell ref="AB38:AK38"/>
     <mergeCell ref="V36:AK36"/>
     <mergeCell ref="V32:AK32"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AD12"/>
     <mergeCell ref="Q6:U6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="AD6:AG6"/>
